--- a/SCE_stdev.xlsx
+++ b/SCE_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.3766160011291504</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3222141265869141</v>
+        <v>4.3240971565246582</v>
       </c>
       <c r="D7" s="2">
         <v>5.3208756446838379</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1905484199523926</v>
+        <v>5.1917343139648438</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>4.9273009300231934</v>
       </c>
       <c r="C8" s="2">
-        <v>4.8096461296081543</v>
+        <v>4.8093791007995605</v>
       </c>
       <c r="D8" s="2">
         <v>5.6248149871826172</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5251255035400391</v>
+        <v>5.5262651443481445</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.5088901519775391</v>
       </c>
       <c r="C9" s="2">
-        <v>5.3205485343933105</v>
+        <v>5.3199267387390137</v>
       </c>
       <c r="D9" s="2">
         <v>5.7272243499755859</v>
       </c>
       <c r="E9" s="2">
-        <v>5.5856971740722656</v>
+        <v>5.5862526893615723</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.08917236328125</v>
       </c>
       <c r="C10" s="2">
-        <v>4.9359731674194336</v>
+        <v>4.9373383522033691</v>
       </c>
       <c r="D10" s="2">
         <v>5.7389001846313477</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5788979530334473</v>
+        <v>5.5791974067687988</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>6.7023992538452148</v>
       </c>
       <c r="C11" s="2">
-        <v>6.5643606185913086</v>
+        <v>6.567929744720459</v>
       </c>
       <c r="D11" s="2">
         <v>5.8502249717712402</v>
       </c>
       <c r="E11" s="2">
-        <v>5.6786990165710449</v>
+        <v>5.6784248352050781</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>7.1445112228393555</v>
       </c>
       <c r="C12" s="2">
-        <v>7.1980118751525879</v>
+        <v>7.1989197731018066</v>
       </c>
       <c r="D12" s="2">
         <v>6.1374540328979492</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9673185348510742</v>
+        <v>5.9669651985168457</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>6.3416814804077148</v>
       </c>
       <c r="C13" s="2">
-        <v>5.9491262435913086</v>
+        <v>5.9461784362792969</v>
       </c>
       <c r="D13" s="2">
         <v>6.369962215423584</v>
       </c>
       <c r="E13" s="2">
-        <v>6.2061429023742676</v>
+        <v>6.205479621887207</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>5.8206300735473633</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5313014984130859</v>
+        <v>5.5298099517822266</v>
       </c>
       <c r="D14" s="2">
         <v>6.3614044189453125</v>
       </c>
       <c r="E14" s="2">
-        <v>6.2059001922607422</v>
+        <v>6.2047758102416992</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.7408227920532227</v>
       </c>
       <c r="C15" s="2">
-        <v>6.4771075248718262</v>
+        <v>6.4722447395324707</v>
       </c>
       <c r="D15" s="2">
         <v>6.565824031829834</v>
       </c>
       <c r="E15" s="2">
-        <v>6.4191131591796875</v>
+        <v>6.4174938201904297</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.9616789817810059</v>
       </c>
       <c r="C16" s="2">
-        <v>6.9197907447814941</v>
+        <v>6.9209585189819336</v>
       </c>
       <c r="D16" s="2">
         <v>6.5533127784729004</v>
       </c>
       <c r="E16" s="2">
-        <v>6.4088058471679688</v>
+        <v>6.4064626693725586</v>
       </c>
     </row>
     <row r="17">
@@ -318,16 +318,16 @@
         <v>41730</v>
       </c>
       <c r="B17" s="2">
-        <v>7.0198736190795898</v>
+        <v>7.0198736190795899</v>
       </c>
       <c r="C17" s="2">
-        <v>6.9590673446655273</v>
+        <v>6.9560098648071289</v>
       </c>
       <c r="D17" s="2">
         <v>6.4752511978149414</v>
       </c>
       <c r="E17" s="2">
-        <v>6.2957310676574707</v>
+        <v>6.2932968139648438</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>5.4318685531616211</v>
       </c>
       <c r="C18" s="2">
-        <v>5.318361759185791</v>
+        <v>5.3135910034179688</v>
       </c>
       <c r="D18" s="2">
         <v>6.4657926559448242</v>
       </c>
       <c r="E18" s="2">
-        <v>6.2985615730285645</v>
+        <v>6.2962150573730469</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>6.928950309753418</v>
       </c>
       <c r="C19" s="2">
-        <v>6.8548893928527832</v>
+        <v>6.8518037796020508</v>
       </c>
       <c r="D19" s="2">
         <v>6.5046501159667969</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3778724670410156</v>
+        <v>6.375938892364502</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>6.5897998809814453</v>
       </c>
       <c r="C20" s="2">
-        <v>6.4715967178344727</v>
+        <v>6.4686465263366699</v>
       </c>
       <c r="D20" s="2">
         <v>6.5902962684631348</v>
       </c>
       <c r="E20" s="2">
-        <v>6.4664731025695801</v>
+        <v>6.4650993347167969</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>6.4419560432434082</v>
       </c>
       <c r="C21" s="2">
-        <v>6.1803388595581055</v>
+        <v>6.1804285049438477</v>
       </c>
       <c r="D21" s="2">
         <v>6.5911030769348145</v>
       </c>
       <c r="E21" s="2">
-        <v>6.4695310592651367</v>
+        <v>6.4683060646057129</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>6.2565526962280273</v>
       </c>
       <c r="C22" s="2">
-        <v>5.9745998382568359</v>
+        <v>5.9724445343017578</v>
       </c>
       <c r="D22" s="2">
         <v>6.5778684616088867</v>
       </c>
       <c r="E22" s="2">
-        <v>6.4398050308227539</v>
+        <v>6.4393706321716309</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>6.1703476905822754</v>
       </c>
       <c r="C23" s="2">
-        <v>6.2450985908508301</v>
+        <v>6.2473225593566895</v>
       </c>
       <c r="D23" s="2">
         <v>6.8175868988037109</v>
       </c>
       <c r="E23" s="2">
-        <v>6.6779484748840332</v>
+        <v>6.6780133247375488</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.5116400718688965</v>
       </c>
       <c r="C24" s="2">
-        <v>7.2745141983032227</v>
+        <v>7.274688720703125</v>
       </c>
       <c r="D24" s="2">
         <v>6.6747927665710449</v>
       </c>
       <c r="E24" s="2">
-        <v>6.5424413681030273</v>
+        <v>6.5422778129577637</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>6.9689383506774902</v>
       </c>
       <c r="C25" s="2">
-        <v>6.9473109245300293</v>
+        <v>6.9498205184936524</v>
       </c>
       <c r="D25" s="2">
         <v>6.5991482734680176</v>
       </c>
       <c r="E25" s="2">
-        <v>6.5024657249450684</v>
+        <v>6.5026354789733887</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>6.9007606506347656</v>
       </c>
       <c r="C26" s="2">
-        <v>6.6915359497070312</v>
+        <v>6.6955881118774414</v>
       </c>
       <c r="D26" s="2">
         <v>6.5725560188293457</v>
       </c>
       <c r="E26" s="2">
-        <v>6.4817862510681152</v>
+        <v>6.4820284843444824</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>7.5893359184265137</v>
       </c>
       <c r="C27" s="2">
-        <v>7.4616508483886719</v>
+        <v>7.4613785743713379</v>
       </c>
       <c r="D27" s="2">
         <v>6.5490598678588867</v>
       </c>
       <c r="E27" s="2">
-        <v>6.483642578125</v>
+        <v>6.4847278594970703</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.6438055038452148</v>
       </c>
       <c r="C28" s="2">
-        <v>5.6353259086608887</v>
+        <v>5.6301841735839844</v>
       </c>
       <c r="D28" s="2">
         <v>6.5775609016418457</v>
       </c>
       <c r="E28" s="2">
-        <v>6.4912681579589844</v>
+        <v>6.4920063018798828</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>5.9089961051940918</v>
       </c>
       <c r="C29" s="2">
-        <v>6.1118144989013672</v>
+        <v>6.1118621826171875</v>
       </c>
       <c r="D29" s="2">
         <v>6.4952526092529297</v>
       </c>
       <c r="E29" s="2">
-        <v>6.4095945358276367</v>
+        <v>6.4102559089660645</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.2026290893554688</v>
       </c>
       <c r="C30" s="2">
-        <v>5.994225025177002</v>
+        <v>5.9949684143066406</v>
       </c>
       <c r="D30" s="2">
         <v>6.533477783203125</v>
       </c>
       <c r="E30" s="2">
-        <v>6.4334502220153809</v>
+        <v>6.4334492683410645</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0450873374938965</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9913058280944824</v>
+        <v>5.9967379570007324</v>
       </c>
       <c r="D31" s="2">
         <v>6.4435620307922363</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3662300109863281</v>
+        <v>6.3656682968139648</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>6.4268560409545898</v>
       </c>
       <c r="C32" s="2">
-        <v>6.3137288093566895</v>
+        <v>6.3128261566162109</v>
       </c>
       <c r="D32" s="2">
         <v>6.2075600624084473</v>
       </c>
       <c r="E32" s="2">
-        <v>6.1481332778930664</v>
+        <v>6.1480784416198731</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.7708635330200195</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5394530296325684</v>
+        <v>6.5389351844787598</v>
       </c>
       <c r="D33" s="2">
         <v>6.1695270538330078</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0937814712524414</v>
+        <v>6.093656063079834</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>7.3129644393920898</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1620135307312012</v>
+        <v>7.1585636138916016</v>
       </c>
       <c r="D34" s="2">
         <v>6.1940207481384277</v>
       </c>
       <c r="E34" s="2">
-        <v>6.0866680145263672</v>
+        <v>6.0865416526794434</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>6.091519832611084</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0865516662597656</v>
+        <v>6.0855569839477539</v>
       </c>
       <c r="D35" s="2">
         <v>6.1752529144287109</v>
       </c>
       <c r="E35" s="2">
-        <v>6.0915179252624512</v>
+        <v>6.0914020538330078</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.4653201103210449</v>
       </c>
       <c r="C36" s="2">
-        <v>5.4987802505493164</v>
+        <v>5.5030708312988281</v>
       </c>
       <c r="D36" s="2">
         <v>6.1984052658081055</v>
       </c>
       <c r="E36" s="2">
-        <v>6.1159772872924805</v>
+        <v>6.1148285865783692</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>5.301506519317627</v>
       </c>
       <c r="C37" s="2">
-        <v>5.1461591720581055</v>
+        <v>5.1403851509094238</v>
       </c>
       <c r="D37" s="2">
         <v>6.1795182228088379</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0868940353393555</v>
+        <v>6.0862255096435547</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>6.1294403076171875</v>
       </c>
       <c r="C38" s="2">
-        <v>6.047795295715332</v>
+        <v>6.0478286743164063</v>
       </c>
       <c r="D38" s="2">
         <v>6.1320891380310059</v>
       </c>
       <c r="E38" s="2">
-        <v>6.0508670806884766</v>
+        <v>6.0504560470581055</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>6.0337200164794922</v>
       </c>
       <c r="C39" s="2">
-        <v>6.0378732681274414</v>
+        <v>6.0387139320373535</v>
       </c>
       <c r="D39" s="2">
         <v>5.9034738540649414</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8023066520690918</v>
+        <v>5.8021531105041504</v>
       </c>
     </row>
     <row r="40">
@@ -709,16 +709,16 @@
         <v>42430</v>
       </c>
       <c r="B40" s="2">
-        <v>6.2534551620483398</v>
+        <v>6.2534551620483399</v>
       </c>
       <c r="C40" s="2">
-        <v>6.2114410400390625</v>
+        <v>6.207575798034668</v>
       </c>
       <c r="D40" s="2">
         <v>5.9057126045227051</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7792296409606934</v>
+        <v>5.77923583984375</v>
       </c>
     </row>
     <row r="41">
@@ -726,16 +726,16 @@
         <v>42461</v>
       </c>
       <c r="B41" s="2">
-        <v>6.2568740844726562</v>
+        <v>6.2568740844726563</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0519800186157227</v>
+        <v>6.0553975105285645</v>
       </c>
       <c r="D41" s="2">
         <v>6.0877313613891602</v>
       </c>
       <c r="E41" s="2">
-        <v>5.9351463317871094</v>
+        <v>5.9345154762268067</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>6.3440008163452148</v>
       </c>
       <c r="C42" s="2">
-        <v>6.2152094841003418</v>
+        <v>6.2170100212097168</v>
       </c>
       <c r="D42" s="2">
         <v>6.1198782920837402</v>
       </c>
       <c r="E42" s="2">
-        <v>5.9849066734313965</v>
+        <v>5.9848899841308594</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.2554292678833008</v>
       </c>
       <c r="C43" s="2">
-        <v>4.9249677658081055</v>
+        <v>4.9238409996032715</v>
       </c>
       <c r="D43" s="2">
         <v>6.0441641807556152</v>
       </c>
       <c r="E43" s="2">
-        <v>5.9154644012451172</v>
+        <v>5.9154739379882813</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>6.1116690635681152</v>
       </c>
       <c r="C44" s="2">
-        <v>5.8788614273071289</v>
+        <v>5.8793001174926758</v>
       </c>
       <c r="D44" s="2">
         <v>6.055727481842041</v>
       </c>
       <c r="E44" s="2">
-        <v>5.8953700065612793</v>
+        <v>5.8955678939819336</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>7.1034855842590332</v>
       </c>
       <c r="C45" s="2">
-        <v>6.9020276069641113</v>
+        <v>6.9005875587463379</v>
       </c>
       <c r="D45" s="2">
         <v>6.1613049507141113</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0130777359008789</v>
+        <v>6.0139346122741699</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.5908308029174805</v>
       </c>
       <c r="C46" s="2">
-        <v>5.5940041542053223</v>
+        <v>5.5937538146972656</v>
       </c>
       <c r="D46" s="2">
         <v>6.293513298034668</v>
       </c>
       <c r="E46" s="2">
-        <v>6.1750702857971191</v>
+        <v>6.1759414672851563</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.4480128288269043</v>
       </c>
       <c r="C47" s="2">
-        <v>5.4228134155273438</v>
+        <v>5.4230837821960449</v>
       </c>
       <c r="D47" s="2">
-        <v>6.3882975578308105</v>
+        <v>6.3882975578308106</v>
       </c>
       <c r="E47" s="2">
-        <v>6.2979841232299805</v>
+        <v>6.2987761497497559</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.1377911567687988</v>
       </c>
       <c r="C48" s="2">
-        <v>5.8570232391357422</v>
+        <v>5.8595595359802246</v>
       </c>
       <c r="D48" s="2">
         <v>6.5736865997314453</v>
       </c>
       <c r="E48" s="2">
-        <v>6.5229778289794922</v>
+        <v>6.5239706039428711</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>7.2036523818969727</v>
       </c>
       <c r="C49" s="2">
-        <v>7.2708120346069336</v>
+        <v>7.2728786468505859</v>
       </c>
       <c r="D49" s="2">
-        <v>6.615668773651123</v>
+        <v>6.6156687736511231</v>
       </c>
       <c r="E49" s="2">
-        <v>6.5830302238464355</v>
+        <v>6.5839347839355469</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>7.4467463493347168</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5099148750305176</v>
+        <v>7.5134601593017578</v>
       </c>
       <c r="D50" s="2">
         <v>6.4916987419128418</v>
       </c>
       <c r="E50" s="2">
-        <v>6.4685869216918945</v>
+        <v>6.4695935249328613</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>7.1970605850219727</v>
       </c>
       <c r="C51" s="2">
-        <v>7.3214335441589355</v>
+        <v>7.3225202560424805</v>
       </c>
       <c r="D51" s="2">
         <v>6.6447196006774902</v>
       </c>
       <c r="E51" s="2">
-        <v>6.6286830902099609</v>
+        <v>6.6297297477722168</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.9239311218261719</v>
       </c>
       <c r="C52" s="2">
-        <v>6.9499115943908691</v>
+        <v>6.950589656829834</v>
       </c>
       <c r="D52" s="2">
         <v>6.7505278587341309</v>
       </c>
       <c r="E52" s="2">
-        <v>6.7200703620910645</v>
+        <v>6.7206225395202637</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.489506721496582</v>
       </c>
       <c r="C53" s="2">
-        <v>6.4193315505981445</v>
+        <v>6.4189796447753906</v>
       </c>
       <c r="D53" s="2">
         <v>6.754941463470459</v>
       </c>
       <c r="E53" s="2">
-        <v>6.7534976005554199</v>
+        <v>6.7537980079650879</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.9877557754516602</v>
       </c>
       <c r="C54" s="2">
-        <v>5.8720378875732422</v>
+        <v>5.8715176582336426</v>
       </c>
       <c r="D54" s="2">
-        <v>6.6327285766601562</v>
+        <v>6.6327285766601563</v>
       </c>
       <c r="E54" s="2">
-        <v>6.6080451011657715</v>
+        <v>6.6076645851135254</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>6.9680194854736328</v>
       </c>
       <c r="C55" s="2">
-        <v>7.0348687171936035</v>
+        <v>7.0349788665771484</v>
       </c>
       <c r="D55" s="2">
         <v>6.5913233757019043</v>
       </c>
       <c r="E55" s="2">
-        <v>6.5724048614501953</v>
+        <v>6.5720372200012207</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>6.4002885818481445</v>
       </c>
       <c r="C56" s="2">
-        <v>6.2452998161315918</v>
+        <v>6.2411189079284668</v>
       </c>
       <c r="D56" s="2">
         <v>6.5557041168212891</v>
       </c>
       <c r="E56" s="2">
-        <v>6.5189104080200195</v>
+        <v>6.5188212394714355</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>6.1775131225585938</v>
       </c>
       <c r="C57" s="2">
-        <v>6.1578688621520996</v>
+        <v>6.1581401824951172</v>
       </c>
       <c r="D57" s="2">
         <v>6.4121708869934082</v>
       </c>
       <c r="E57" s="2">
-        <v>6.3637232780456543</v>
+        <v>6.3631372451782227</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>6.1037335395812988</v>
       </c>
       <c r="C58" s="2">
-        <v>5.9617376327514648</v>
+        <v>5.9576764106750488</v>
       </c>
       <c r="D58" s="2">
         <v>6.442194938659668</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4049291610717773</v>
+        <v>6.4046063423156738</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>7.0741024017333984</v>
       </c>
       <c r="C59" s="2">
-        <v>7.189152717590332</v>
+        <v>7.1928138732910156</v>
       </c>
       <c r="D59" s="2">
         <v>6.434420108795166</v>
       </c>
       <c r="E59" s="2">
-        <v>6.3899097442626953</v>
+        <v>6.3894529342651367</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.8764848709106445</v>
       </c>
       <c r="C60" s="2">
-        <v>6.8399868011474609</v>
+        <v>6.8435750007629395</v>
       </c>
       <c r="D60" s="2">
         <v>6.3491740226745605</v>
       </c>
       <c r="E60" s="2">
-        <v>6.2928466796875</v>
+        <v>6.2920646667480469</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>5.6321353912353516</v>
       </c>
       <c r="C61" s="2">
-        <v>5.5532269477844238</v>
+        <v>5.5494332313537598</v>
       </c>
       <c r="D61" s="2">
         <v>6.3328986167907715</v>
       </c>
       <c r="E61" s="2">
-        <v>6.2691617012023926</v>
+        <v>6.2691655158996582</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>6.7597222328186035</v>
       </c>
       <c r="C62" s="2">
-        <v>6.7901811599731445</v>
+        <v>6.7922029495239258</v>
       </c>
       <c r="D62" s="2">
         <v>6.4095625877380371</v>
       </c>
       <c r="E62" s="2">
-        <v>6.3353219032287598</v>
+        <v>6.3348479270935059</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>5.9177823066711426</v>
       </c>
       <c r="C63" s="2">
-        <v>5.7368669509887695</v>
+        <v>5.7351369857788086</v>
       </c>
       <c r="D63" s="2">
         <v>6.3646349906921387</v>
       </c>
       <c r="E63" s="2">
-        <v>6.2863016128540039</v>
+        <v>6.2863907814025879</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>6.2008047103881836</v>
       </c>
       <c r="C64" s="2">
-        <v>6.1612977981567383</v>
+        <v>6.158484935760498</v>
       </c>
       <c r="D64" s="2">
         <v>6.2863035202026367</v>
       </c>
       <c r="E64" s="2">
-        <v>6.1763763427734375</v>
+        <v>6.1762027740478516</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.2538094520568848</v>
       </c>
       <c r="C65" s="2">
-        <v>6.0321354866027832</v>
+        <v>6.0350255966186523</v>
       </c>
       <c r="D65" s="2">
         <v>6.2225532531738281</v>
       </c>
       <c r="E65" s="2">
-        <v>6.0992450714111328</v>
+        <v>6.0986099243164063</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>6.8674893379211426</v>
       </c>
       <c r="C66" s="2">
-        <v>6.7533111572265625</v>
+        <v>6.7492842674255371</v>
       </c>
       <c r="D66" s="2">
         <v>6.2243313789367676</v>
       </c>
       <c r="E66" s="2">
-        <v>6.103424072265625</v>
+        <v>6.1031298637390137</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>5.6993837356567383</v>
       </c>
       <c r="C67" s="2">
-        <v>5.5205550193786621</v>
+        <v>5.5215616226196289</v>
       </c>
       <c r="D67" s="2">
         <v>6.0078926086425781</v>
       </c>
       <c r="E67" s="2">
-        <v>5.8837695121765137</v>
+        <v>5.8831872940063477</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>6.3691182136535645</v>
       </c>
       <c r="C68" s="2">
-        <v>6.1998257637023926</v>
+        <v>6.2011189460754395</v>
       </c>
       <c r="D68" s="2">
         <v>5.9613947868347168</v>
       </c>
       <c r="E68" s="2">
-        <v>5.8421902656555176</v>
+        <v>5.8420295715332031</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>6.3027334213256836</v>
       </c>
       <c r="C69" s="2">
-        <v>6.1458067893981934</v>
+        <v>6.145240306854248</v>
       </c>
       <c r="D69" s="2">
         <v>5.8975124359130859</v>
       </c>
       <c r="E69" s="2">
-        <v>5.7828397750854492</v>
+        <v>5.7836942672729492</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>5.6481375694274902</v>
       </c>
       <c r="C70" s="2">
-        <v>5.5908370018005371</v>
+        <v>5.5901122093200684</v>
       </c>
       <c r="D70" s="2">
         <v>5.9526658058166504</v>
       </c>
       <c r="E70" s="2">
-        <v>5.8513054847717285</v>
+        <v>5.8516712188720703</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>4.8117733001708984</v>
       </c>
       <c r="C71" s="2">
-        <v>4.8132891654968262</v>
+        <v>4.8127188682556152</v>
       </c>
       <c r="D71" s="2">
         <v>5.9479408264160156</v>
       </c>
       <c r="E71" s="2">
-        <v>5.8731999397277832</v>
+        <v>5.8746190071105957</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>5.4993038177490234</v>
       </c>
       <c r="C72" s="2">
-        <v>5.3626551628112793</v>
+        <v>5.3647189140319824</v>
       </c>
       <c r="D72" s="2">
         <v>5.9946599006652832</v>
       </c>
       <c r="E72" s="2">
-        <v>5.918877124786377</v>
+        <v>5.9194364547729492</v>
       </c>
     </row>
     <row r="73">
@@ -1270,16 +1270,16 @@
         <v>43435</v>
       </c>
       <c r="B73" s="2">
-        <v>5.6258621215820312</v>
+        <v>5.6258621215820313</v>
       </c>
       <c r="C73" s="2">
-        <v>5.6271419525146484</v>
+        <v>5.6334671974182129</v>
       </c>
       <c r="D73" s="2">
         <v>6.0496644973754883</v>
       </c>
       <c r="E73" s="2">
-        <v>5.9951791763305664</v>
+        <v>5.9957427978515625</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.7501888275146484</v>
       </c>
       <c r="C74" s="2">
-        <v>6.6483278274536133</v>
+        <v>6.646817684173584</v>
       </c>
       <c r="D74" s="2">
         <v>6.0850920677185059</v>
       </c>
       <c r="E74" s="2">
-        <v>6.0555534362792969</v>
+        <v>6.0563840866088867</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>6.8249673843383789</v>
       </c>
       <c r="C75" s="2">
-        <v>6.9503598213195801</v>
+        <v>6.9558148384094238</v>
       </c>
       <c r="D75" s="2">
         <v>6.1572055816650391</v>
       </c>
       <c r="E75" s="2">
-        <v>6.1257748603820801</v>
+        <v>6.1268796920776367</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>6.1198534965515137</v>
       </c>
       <c r="C76" s="2">
-        <v>5.9316487312316895</v>
+        <v>5.9249181747436523</v>
       </c>
       <c r="D76" s="2">
         <v>6.3904237747192383</v>
       </c>
       <c r="E76" s="2">
-        <v>6.3370513916015625</v>
+        <v>6.3381099700927734</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.864161491394043</v>
       </c>
       <c r="C77" s="2">
-        <v>6.8865447044372559</v>
+        <v>6.8878765106201172</v>
       </c>
       <c r="D77" s="2">
         <v>6.4813189506530762</v>
       </c>
       <c r="E77" s="2">
-        <v>6.4325289726257324</v>
+        <v>6.433016300201416</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>6.6215806007385254</v>
       </c>
       <c r="C78" s="2">
-        <v>6.689176082611084</v>
+        <v>6.6910123825073242</v>
       </c>
       <c r="D78" s="2">
         <v>6.6365394592285156</v>
       </c>
       <c r="E78" s="2">
-        <v>6.569063663482666</v>
+        <v>6.5691165924072266</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>6.2971606254577637</v>
       </c>
       <c r="C79" s="2">
-        <v>6.2228307723999023</v>
+        <v>6.224571704864502</v>
       </c>
       <c r="D79" s="2">
         <v>6.6221461296081543</v>
       </c>
       <c r="E79" s="2">
-        <v>6.5284767150878906</v>
+        <v>6.5289740562438965</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.9107375144958496</v>
       </c>
       <c r="C80" s="2">
-        <v>6.7147793769836426</v>
+        <v>6.7137932777404785</v>
       </c>
       <c r="D80" s="2">
         <v>6.5040831565856934</v>
       </c>
       <c r="E80" s="2">
-        <v>6.3681869506835938</v>
+        <v>6.3680548667907715</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>6.3173575401306152</v>
       </c>
       <c r="C81" s="2">
-        <v>6.2219524383544922</v>
+        <v>6.2188730239868164</v>
       </c>
       <c r="D81" s="2">
         <v>6.549626350402832</v>
       </c>
       <c r="E81" s="2">
-        <v>6.396669864654541</v>
+        <v>6.3966865539550781</v>
       </c>
     </row>
     <row r="82">
@@ -1423,16 +1423,16 @@
         <v>43709</v>
       </c>
       <c r="B82" s="2">
-        <v>7.0228486061096191</v>
+        <v>7.0228486061096192</v>
       </c>
       <c r="C82" s="2">
-        <v>6.8559551239013672</v>
+        <v>6.8583698272705078</v>
       </c>
       <c r="D82" s="2">
         <v>6.398247241973877</v>
       </c>
       <c r="E82" s="2">
-        <v>6.2462472915649414</v>
+        <v>6.246457576751709</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6206493377685547</v>
       </c>
       <c r="C83" s="2">
-        <v>6.2830448150634766</v>
+        <v>6.2855348587036133</v>
       </c>
       <c r="D83" s="2">
         <v>6.3949055671691895</v>
       </c>
       <c r="E83" s="2">
-        <v>6.2307343482971191</v>
+        <v>6.2308573722839356</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>5.7624011039733887</v>
       </c>
       <c r="C84" s="2">
-        <v>5.50775146484375</v>
+        <v>5.5075454711914063</v>
       </c>
       <c r="D84" s="2">
         <v>6.4814581871032715</v>
       </c>
       <c r="E84" s="2">
-        <v>6.3284034729003906</v>
+        <v>6.3284869194030762</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>6.5297408103942871</v>
       </c>
       <c r="C85" s="2">
-        <v>6.1879920959472656</v>
+        <v>6.1826024055480957</v>
       </c>
       <c r="D85" s="2">
         <v>6.6420841217041016</v>
       </c>
       <c r="E85" s="2">
-        <v>6.4792265892028809</v>
+        <v>6.4796028137207031</v>
       </c>
     </row>
     <row r="86">
@@ -1491,16 +1491,16 @@
         <v>43831</v>
       </c>
       <c r="B86" s="2">
-        <v>5.5017471313476562</v>
+        <v>5.5017471313476563</v>
       </c>
       <c r="C86" s="2">
-        <v>5.5327434539794922</v>
+        <v>5.5358171463012695</v>
       </c>
       <c r="D86" s="2">
         <v>6.8498764038085938</v>
       </c>
       <c r="E86" s="2">
-        <v>6.6814475059509277</v>
+        <v>6.6819686889648438</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>6.5915093421936035</v>
       </c>
       <c r="C87" s="2">
-        <v>6.5495591163635254</v>
+        <v>6.5506095886230469</v>
       </c>
       <c r="D87" s="2">
         <v>6.8130464553833008</v>
       </c>
       <c r="E87" s="2">
-        <v>6.626528263092041</v>
+        <v>6.6268219947814941</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>7.076134204864502</v>
       </c>
       <c r="C88" s="2">
-        <v>7.1018519401550293</v>
+        <v>7.1032376289367676</v>
       </c>
       <c r="D88" s="2">
         <v>6.9035587310791016</v>
       </c>
       <c r="E88" s="2">
-        <v>6.7482585906982422</v>
+        <v>6.7479166984558106</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>8.3563680648803711</v>
       </c>
       <c r="C89" s="2">
-        <v>8.0721893310546875</v>
+        <v>8.0738353729248047</v>
       </c>
       <c r="D89" s="2">
         <v>7.0460209846496582</v>
       </c>
       <c r="E89" s="2">
-        <v>6.9000997543334961</v>
+        <v>6.8992104530334473</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>8.1874904632568359</v>
       </c>
       <c r="C90" s="2">
-        <v>8.0419416427612305</v>
+        <v>8.0401678085327148</v>
       </c>
       <c r="D90" s="2">
         <v>7.046541690826416</v>
       </c>
       <c r="E90" s="2">
-        <v>6.9256916046142578</v>
+        <v>6.9251246452331543</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>6.6913776397705078</v>
       </c>
       <c r="C91" s="2">
-        <v>6.3616790771484375</v>
+        <v>6.3620467185974121</v>
       </c>
       <c r="D91" s="2">
         <v>7.2546029090881348</v>
       </c>
       <c r="E91" s="2">
-        <v>7.0988450050354004</v>
+        <v>7.0979909896850586</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>7.4352602958679199</v>
       </c>
       <c r="C92" s="2">
-        <v>7.3786187171936035</v>
+        <v>7.3753900527954102</v>
       </c>
       <c r="D92" s="2">
         <v>7.1930127143859863</v>
       </c>
       <c r="E92" s="2">
-        <v>7.046806812286377</v>
+        <v>7.045590877532959</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>7.0445599555969238</v>
       </c>
       <c r="C93" s="2">
-        <v>6.8743219375610352</v>
+        <v>6.8691854476928711</v>
       </c>
       <c r="D93" s="2">
         <v>7.2433185577392578</v>
       </c>
       <c r="E93" s="2">
-        <v>7.0938324928283691</v>
+        <v>7.0921220779418945</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>6.5344271659851074</v>
       </c>
       <c r="C94" s="2">
-        <v>6.4183211326599121</v>
+        <v>6.4158310890197754</v>
       </c>
       <c r="D94" s="2">
         <v>7.1680703163146973</v>
       </c>
       <c r="E94" s="2">
-        <v>7.042698860168457</v>
+        <v>7.0408201217651367</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>7.3743009567260742</v>
       </c>
       <c r="C95" s="2">
-        <v>7.0911216735839844</v>
+        <v>7.0916132926940918</v>
       </c>
       <c r="D95" s="2">
         <v>6.9110846519470215</v>
       </c>
       <c r="E95" s="2">
-        <v>6.7991065979003906</v>
+        <v>6.7972874641418457</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>6.0371966361999512</v>
       </c>
       <c r="C96" s="2">
-        <v>6.0812163352966309</v>
+        <v>6.0790109634399414</v>
       </c>
       <c r="D96" s="2">
         <v>6.8539166450500488</v>
       </c>
       <c r="E96" s="2">
-        <v>6.7745780944824219</v>
+        <v>6.7728886604309082</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>7.5288867950439453</v>
       </c>
       <c r="C97" s="2">
-        <v>7.525080680847168</v>
+        <v>7.5220179557800293</v>
       </c>
       <c r="D97" s="2">
         <v>6.7651395797729492</v>
       </c>
       <c r="E97" s="2">
-        <v>6.6726155281066895</v>
+        <v>6.67108154296875</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>7.6791324615478516</v>
       </c>
       <c r="C98" s="2">
-        <v>7.6119885444641113</v>
+        <v>7.6121187210083008</v>
       </c>
       <c r="D98" s="2">
         <v>6.5980830192565918</v>
       </c>
       <c r="E98" s="2">
-        <v>6.5016756057739258</v>
+        <v>6.5006771087646484</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.8746209144592285</v>
       </c>
       <c r="C99" s="2">
-        <v>5.8496131896972656</v>
+        <v>5.8483738899230957</v>
       </c>
       <c r="D99" s="2">
-        <v>6.5619583129882812</v>
+        <v>6.5619583129882813</v>
       </c>
       <c r="E99" s="2">
-        <v>6.4690704345703125</v>
+        <v>6.4679608345031738</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.1768641471862793</v>
       </c>
       <c r="C100" s="2">
-        <v>6.1409201622009277</v>
+        <v>6.1424560546875</v>
       </c>
       <c r="D100" s="2">
         <v>6.5209565162658691</v>
       </c>
       <c r="E100" s="2">
-        <v>6.4530277252197266</v>
+        <v>6.4520001411437988</v>
       </c>
     </row>
     <row r="101">
@@ -1746,16 +1746,16 @@
         <v>44287</v>
       </c>
       <c r="B101" s="2">
-        <v>6.6362686157226562</v>
+        <v>6.6362686157226563</v>
       </c>
       <c r="C101" s="2">
-        <v>6.4609575271606445</v>
+        <v>6.4591245651245117</v>
       </c>
       <c r="D101" s="2">
         <v>6.5136809349060059</v>
       </c>
       <c r="E101" s="2">
-        <v>6.4352178573608398</v>
+        <v>6.4348349571228027</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.5410513877868652</v>
       </c>
       <c r="C102" s="2">
-        <v>5.3358597755432129</v>
+        <v>5.3355488777160645</v>
       </c>
       <c r="D102" s="2">
         <v>6.3885221481323242</v>
       </c>
       <c r="E102" s="2">
-        <v>6.2897987365722656</v>
+        <v>6.2895936965942383</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>6.2093029022216797</v>
       </c>
       <c r="C103" s="2">
-        <v>6.1248779296875</v>
+        <v>6.1213846206665039</v>
       </c>
       <c r="D103" s="2">
         <v>6.1262545585632324</v>
       </c>
       <c r="E103" s="2">
-        <v>6.0234212875366211</v>
+        <v>6.0229592323303223</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>7.0052847862243652</v>
       </c>
       <c r="C104" s="2">
-        <v>6.9467344284057617</v>
+        <v>6.9479660987854004</v>
       </c>
       <c r="D104" s="2">
         <v>6.1156749725341797</v>
       </c>
       <c r="E104" s="2">
-        <v>6.0179038047790527</v>
+        <v>6.0177621841430664</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>5.9717144966125488</v>
       </c>
       <c r="C105" s="2">
-        <v>5.9209284782409668</v>
+        <v>5.9245219230651855</v>
       </c>
       <c r="D105" s="2">
-        <v>6.0591340065002441</v>
+        <v>6.0591340065002442</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9659366607666016</v>
+        <v>5.9653711318969727</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>6.4024615287780762</v>
       </c>
       <c r="C106" s="2">
-        <v>6.2163071632385254</v>
+        <v>6.2148504257202149</v>
       </c>
       <c r="D106" s="2">
         <v>5.9271655082702637</v>
       </c>
       <c r="E106" s="2">
-        <v>5.8291707038879395</v>
+        <v>5.8281416893005371</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>5.318723201751709</v>
       </c>
       <c r="C107" s="2">
-        <v>5.214594841003418</v>
+        <v>5.2124061584472656</v>
       </c>
       <c r="D107" s="2">
-        <v>5.8447022438049316</v>
+        <v>5.8447022438049317</v>
       </c>
       <c r="E107" s="2">
-        <v>5.7320775985717773</v>
+        <v>5.7309398651123047</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>5.7794046401977539</v>
       </c>
       <c r="C108" s="2">
-        <v>5.7999520301818848</v>
+        <v>5.801602840423584</v>
       </c>
       <c r="D108" s="2">
         <v>5.8590126037597656</v>
       </c>
       <c r="E108" s="2">
-        <v>5.7304677963256836</v>
+        <v>5.7297701835632324</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>5.6679949760437012</v>
       </c>
       <c r="C109" s="2">
-        <v>5.6732168197631836</v>
+        <v>5.6709365844726563</v>
       </c>
       <c r="D109" s="2">
         <v>5.7989025115966797</v>
       </c>
       <c r="E109" s="2">
-        <v>5.684788703918457</v>
+        <v>5.6838269233703613</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>5.4485507011413574</v>
       </c>
       <c r="C110" s="2">
-        <v>5.2300629615783691</v>
+        <v>5.2240591049194336</v>
       </c>
       <c r="D110" s="2">
         <v>5.830256462097168</v>
       </c>
       <c r="E110" s="2">
-        <v>5.7002677917480469</v>
+        <v>5.6984677314758301</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>4.7988824844360352</v>
       </c>
       <c r="C111" s="2">
-        <v>4.4620242118835449</v>
+        <v>4.4607315063476563</v>
       </c>
       <c r="D111" s="2">
         <v>5.9050545692443848</v>
       </c>
       <c r="E111" s="2">
-        <v>5.7611708641052246</v>
+        <v>5.7593398094177246</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>6.3380980491638184</v>
       </c>
       <c r="C112" s="2">
-        <v>6.1103878021240234</v>
+        <v>6.1108589172363281</v>
       </c>
       <c r="D112" s="2">
         <v>6.2336416244506836</v>
       </c>
       <c r="E112" s="2">
-        <v>6.0878944396972656</v>
+        <v>6.0863518714904785</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>6.4642910957336426</v>
       </c>
       <c r="C113" s="2">
-        <v>6.5356245040893555</v>
+        <v>6.5344767570495605</v>
       </c>
       <c r="D113" s="2">
         <v>6.464024543762207</v>
       </c>
       <c r="E113" s="2">
-        <v>6.2976441383361816</v>
+        <v>6.2962760925292969</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>6.2539033889770508</v>
       </c>
       <c r="C114" s="2">
-        <v>6.06024169921875</v>
+        <v>6.0562868118286133</v>
       </c>
       <c r="D114" s="2">
         <v>6.4126667976379395</v>
       </c>
       <c r="E114" s="2">
-        <v>6.2629880905151367</v>
+        <v>6.2622804641723633</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>7.0756411552429199</v>
       </c>
       <c r="C115" s="2">
-        <v>6.7644343376159668</v>
+        <v>6.7627005577087402</v>
       </c>
       <c r="D115" s="2">
         <v>6.4821228981018066</v>
       </c>
       <c r="E115" s="2">
-        <v>6.2997550964355469</v>
+        <v>6.2997326850891113</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>8.2760095596313477</v>
       </c>
       <c r="C116" s="2">
-        <v>8.1551036834716797</v>
+        <v>8.1555137634277344</v>
       </c>
       <c r="D116" s="2">
         <v>6.6441183090209961</v>
       </c>
       <c r="E116" s="2">
-        <v>6.4803190231323242</v>
+        <v>6.4803028106689453</v>
       </c>
     </row>
     <row r="117">
@@ -2018,16 +2018,16 @@
         <v>44774</v>
       </c>
       <c r="B117" s="2">
-        <v>7.8528504371643066</v>
+        <v>7.8528504371643067</v>
       </c>
       <c r="C117" s="2">
-        <v>7.6877002716064453</v>
+        <v>7.6909213066101074</v>
       </c>
       <c r="D117" s="2">
         <v>6.5947327613830566</v>
       </c>
       <c r="E117" s="2">
-        <v>6.4166164398193359</v>
+        <v>6.4163780212402344</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>5.2057738304138184</v>
       </c>
       <c r="C118" s="2">
-        <v>5.3613128662109375</v>
+        <v>5.3649773597717285</v>
       </c>
       <c r="D118" s="2">
         <v>6.8340396881103516</v>
       </c>
       <c r="E118" s="2">
-        <v>6.6310853958129883</v>
+        <v>6.6309967041015625</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>6.0736546516418457</v>
       </c>
       <c r="C119" s="2">
-        <v>5.5609650611877441</v>
+        <v>5.5611262321472168</v>
       </c>
       <c r="D119" s="2">
         <v>6.8994770050048828</v>
       </c>
       <c r="E119" s="2">
-        <v>6.716984748840332</v>
+        <v>6.717381477355957</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>6.2568421363830566</v>
       </c>
       <c r="C120" s="2">
-        <v>6.0870990753173828</v>
+        <v>6.0858645439147949</v>
       </c>
       <c r="D120" s="2">
         <v>6.9154772758483887</v>
       </c>
       <c r="E120" s="2">
-        <v>6.7725749015808105</v>
+        <v>6.7734384536743164</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>5.8936285972595215</v>
       </c>
       <c r="C121" s="2">
-        <v>5.5370659828186035</v>
+        <v>5.5355367660522461</v>
       </c>
       <c r="D121" s="2">
         <v>6.8374671936035156</v>
       </c>
       <c r="E121" s="2">
-        <v>6.6905035972595215</v>
+        <v>6.6913466453552246</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.6180524826049805</v>
       </c>
       <c r="C122" s="2">
-        <v>8.4658451080322266</v>
+        <v>8.4660434722900391</v>
       </c>
       <c r="D122" s="2">
-        <v>6.7105441093444824</v>
+        <v>6.7066268920898438</v>
       </c>
       <c r="E122" s="2">
-        <v>6.5658540725708008</v>
+        <v>6.5488638877868652</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>6.842841625213623</v>
       </c>
       <c r="C123" s="2">
-        <v>6.8333373069763184</v>
+        <v>6.8337512016296387</v>
       </c>
       <c r="D123" s="2">
-        <v>6.925511360168457</v>
+        <v>6.8168668746948242</v>
       </c>
       <c r="E123" s="2">
-        <v>6.7379312515258789</v>
+        <v>6.6278557777404785</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>7.2196402549743652</v>
       </c>
       <c r="C124" s="2">
-        <v>7.2647438049316406</v>
+        <v>7.2672123908996582</v>
       </c>
       <c r="D124" s="2">
-        <v>7.0674872398376465</v>
+        <v>6.9036989212036133</v>
       </c>
       <c r="E124" s="2">
-        <v>6.9340925216674805</v>
+        <v>6.7426438331604004</v>
       </c>
     </row>
     <row r="125">
@@ -2157,50 +2157,82 @@
         <v>7.5739192962646484</v>
       </c>
       <c r="C125" s="2">
-        <v>7.4164638519287109</v>
+        <v>7.4166855812072754</v>
       </c>
       <c r="D125" s="2">
-        <v>7.229616641998291</v>
+        <v>6.8307151794433594</v>
       </c>
       <c r="E125" s="2">
-        <v>7.1034913063049316</v>
+        <v>6.6805562973022461</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
         <v>45047</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="B126" s="2">
+        <v>6.675290584564209</v>
+      </c>
+      <c r="C126" s="2">
+        <v>6.4085760116577149</v>
+      </c>
+      <c r="D126" s="2">
+        <v>6.9478511810302734</v>
+      </c>
+      <c r="E126" s="2">
+        <v>6.8236837387084961</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
         <v>45078</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="B127" s="2">
+        <v>6.197932243347168</v>
+      </c>
+      <c r="C127" s="2">
+        <v>6.0759057998657227</v>
+      </c>
+      <c r="D127" s="2">
+        <v>6.7092509269714355</v>
+      </c>
+      <c r="E127" s="2">
+        <v>6.5890612602233887</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
         <v>45108</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="B128" s="2">
+        <v>6.8551449775695801</v>
+      </c>
+      <c r="C128" s="2">
+        <v>6.5942206382751465</v>
+      </c>
+      <c r="D128" s="2">
+        <v>6.6869854927062988</v>
+      </c>
+      <c r="E128" s="2">
+        <v>6.5482797622680664</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
         <v>45139</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="B129" s="2">
+        <v>5.5999865531921387</v>
+      </c>
+      <c r="C129" s="2">
+        <v>5.5270767211914063</v>
+      </c>
+      <c r="D129" s="2">
+        <v>6.5804548263549805</v>
+      </c>
+      <c r="E129" s="2">
+        <v>6.4044928550720215</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
@@ -2247,6 +2279,24 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_stdev.xlsx
+++ b/SCE_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.3766160011291504</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3240971565246582</v>
+        <v>4.3252291679382324</v>
       </c>
       <c r="D7" s="2">
         <v>5.3208756446838379</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1917343139648438</v>
+        <v>5.1918501853942871</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>4.9273009300231934</v>
       </c>
       <c r="C8" s="2">
-        <v>4.8093791007995605</v>
+        <v>4.8135523796081543</v>
       </c>
       <c r="D8" s="2">
         <v>5.6248149871826172</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5262651443481445</v>
+        <v>5.5259180068969727</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.5088901519775391</v>
       </c>
       <c r="C9" s="2">
-        <v>5.3199267387390137</v>
+        <v>5.3201093673706055</v>
       </c>
       <c r="D9" s="2">
         <v>5.7272243499755859</v>
       </c>
       <c r="E9" s="2">
-        <v>5.5862526893615723</v>
+        <v>5.5858864784240723</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.08917236328125</v>
       </c>
       <c r="C10" s="2">
-        <v>4.9373383522033691</v>
+        <v>4.9364395141601563</v>
       </c>
       <c r="D10" s="2">
         <v>5.7389001846313477</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5791974067687988</v>
+        <v>5.5787720680236817</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>6.7023992538452148</v>
       </c>
       <c r="C11" s="2">
-        <v>6.567929744720459</v>
+        <v>6.5639214515686035</v>
       </c>
       <c r="D11" s="2">
         <v>5.8502249717712402</v>
       </c>
       <c r="E11" s="2">
-        <v>5.6784248352050781</v>
+        <v>5.6780781745910645</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>7.1445112228393555</v>
       </c>
       <c r="C12" s="2">
-        <v>7.1989197731018066</v>
+        <v>7.1962552070617676</v>
       </c>
       <c r="D12" s="2">
         <v>6.1374540328979492</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9669651985168457</v>
+        <v>5.9669365882873535</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>6.3416814804077148</v>
       </c>
       <c r="C13" s="2">
-        <v>5.9461784362792969</v>
+        <v>5.9456987380981445</v>
       </c>
       <c r="D13" s="2">
         <v>6.369962215423584</v>
       </c>
       <c r="E13" s="2">
-        <v>6.205479621887207</v>
+        <v>6.2049775123596191</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>5.8206300735473633</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5298099517822266</v>
+        <v>5.5289702415466309</v>
       </c>
       <c r="D14" s="2">
         <v>6.3614044189453125</v>
       </c>
       <c r="E14" s="2">
-        <v>6.2047758102416992</v>
+        <v>6.2041835784912109</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.7408227920532227</v>
       </c>
       <c r="C15" s="2">
-        <v>6.4722447395324707</v>
+        <v>6.4725265502929688</v>
       </c>
       <c r="D15" s="2">
         <v>6.565824031829834</v>
       </c>
       <c r="E15" s="2">
-        <v>6.4174938201904297</v>
+        <v>6.4170064926147461</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.9616789817810059</v>
       </c>
       <c r="C16" s="2">
-        <v>6.9209585189819336</v>
+        <v>6.924957275390625</v>
       </c>
       <c r="D16" s="2">
         <v>6.5533127784729004</v>
       </c>
       <c r="E16" s="2">
-        <v>6.4064626693725586</v>
+        <v>6.4065108299255371</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>7.0198736190795899</v>
       </c>
       <c r="C17" s="2">
-        <v>6.9560098648071289</v>
+        <v>6.9559173583984375</v>
       </c>
       <c r="D17" s="2">
         <v>6.4752511978149414</v>
       </c>
       <c r="E17" s="2">
-        <v>6.2932968139648438</v>
+        <v>6.2936396598815918</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>5.4318685531616211</v>
       </c>
       <c r="C18" s="2">
-        <v>5.3135910034179688</v>
+        <v>5.3129673004150391</v>
       </c>
       <c r="D18" s="2">
         <v>6.4657926559448242</v>
       </c>
       <c r="E18" s="2">
-        <v>6.2962150573730469</v>
+        <v>6.296717643737793</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>6.928950309753418</v>
       </c>
       <c r="C19" s="2">
-        <v>6.8518037796020508</v>
+        <v>6.8518438339233398</v>
       </c>
       <c r="D19" s="2">
         <v>6.5046501159667969</v>
       </c>
       <c r="E19" s="2">
-        <v>6.375938892364502</v>
+        <v>6.3765015602111817</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>6.5897998809814453</v>
       </c>
       <c r="C20" s="2">
-        <v>6.4686465263366699</v>
+        <v>6.4694609642028809</v>
       </c>
       <c r="D20" s="2">
         <v>6.5902962684631348</v>
       </c>
       <c r="E20" s="2">
-        <v>6.4650993347167969</v>
+        <v>6.4657115936279297</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>6.4419560432434082</v>
       </c>
       <c r="C21" s="2">
-        <v>6.1804285049438477</v>
+        <v>6.1804146766662598</v>
       </c>
       <c r="D21" s="2">
         <v>6.5911030769348145</v>
       </c>
       <c r="E21" s="2">
-        <v>6.4683060646057129</v>
+        <v>6.4684457778930664</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>6.2565526962280273</v>
       </c>
       <c r="C22" s="2">
-        <v>5.9724445343017578</v>
+        <v>5.9734001159667969</v>
       </c>
       <c r="D22" s="2">
         <v>6.5778684616088867</v>
       </c>
       <c r="E22" s="2">
-        <v>6.4393706321716309</v>
+        <v>6.4396462440490723</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>6.1703476905822754</v>
       </c>
       <c r="C23" s="2">
-        <v>6.2473225593566895</v>
+        <v>6.2470259666442871</v>
       </c>
       <c r="D23" s="2">
         <v>6.8175868988037109</v>
       </c>
       <c r="E23" s="2">
-        <v>6.6780133247375488</v>
+        <v>6.6785340309143066</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.5116400718688965</v>
       </c>
       <c r="C24" s="2">
-        <v>7.274688720703125</v>
+        <v>7.2754154205322266</v>
       </c>
       <c r="D24" s="2">
         <v>6.6747927665710449</v>
       </c>
       <c r="E24" s="2">
-        <v>6.5422778129577637</v>
+        <v>6.5426006317138672</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>6.9689383506774902</v>
       </c>
       <c r="C25" s="2">
-        <v>6.9498205184936524</v>
+        <v>6.9495654106140137</v>
       </c>
       <c r="D25" s="2">
         <v>6.5991482734680176</v>
       </c>
       <c r="E25" s="2">
-        <v>6.5026354789733887</v>
+        <v>6.5029788017272949</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>6.9007606506347656</v>
       </c>
       <c r="C26" s="2">
-        <v>6.6955881118774414</v>
+        <v>6.6967229843139648</v>
       </c>
       <c r="D26" s="2">
         <v>6.5725560188293457</v>
       </c>
       <c r="E26" s="2">
-        <v>6.4820284843444824</v>
+        <v>6.4821572303771973</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>7.5893359184265137</v>
       </c>
       <c r="C27" s="2">
-        <v>7.4613785743713379</v>
+        <v>7.4629569053649902</v>
       </c>
       <c r="D27" s="2">
         <v>6.5490598678588867</v>
       </c>
       <c r="E27" s="2">
-        <v>6.4847278594970703</v>
+        <v>6.4849314689636231</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.6438055038452148</v>
       </c>
       <c r="C28" s="2">
-        <v>5.6301841735839844</v>
+        <v>5.6284418106079102</v>
       </c>
       <c r="D28" s="2">
         <v>6.5775609016418457</v>
       </c>
       <c r="E28" s="2">
-        <v>6.4920063018798828</v>
+        <v>6.4921875</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>5.9089961051940918</v>
       </c>
       <c r="C29" s="2">
-        <v>6.1118621826171875</v>
+        <v>6.1128678321838379</v>
       </c>
       <c r="D29" s="2">
         <v>6.4952526092529297</v>
       </c>
       <c r="E29" s="2">
-        <v>6.4102559089660645</v>
+        <v>6.4104213714599609</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.2026290893554688</v>
       </c>
       <c r="C30" s="2">
-        <v>5.9949684143066406</v>
+        <v>5.9930195808410645</v>
       </c>
       <c r="D30" s="2">
         <v>6.533477783203125</v>
       </c>
       <c r="E30" s="2">
-        <v>6.4334492683410645</v>
+        <v>6.4338502883911133</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0450873374938965</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9967379570007324</v>
+        <v>5.9983687400817871</v>
       </c>
       <c r="D31" s="2">
         <v>6.4435620307922363</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3656682968139648</v>
+        <v>6.3657083511352539</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>6.4268560409545898</v>
       </c>
       <c r="C32" s="2">
-        <v>6.3128261566162109</v>
+        <v>6.3123283386230469</v>
       </c>
       <c r="D32" s="2">
         <v>6.2075600624084473</v>
       </c>
       <c r="E32" s="2">
-        <v>6.1480784416198731</v>
+        <v>6.1478095054626465</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.7708635330200195</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5389351844787598</v>
+        <v>6.5395188331604004</v>
       </c>
       <c r="D33" s="2">
         <v>6.1695270538330078</v>
       </c>
       <c r="E33" s="2">
-        <v>6.093656063079834</v>
+        <v>6.0936565399169922</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>7.3129644393920898</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1585636138916016</v>
+        <v>7.1604256629943848</v>
       </c>
       <c r="D34" s="2">
         <v>6.1940207481384277</v>
       </c>
       <c r="E34" s="2">
-        <v>6.0865416526794434</v>
+        <v>6.0867090225219727</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>6.091519832611084</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0855569839477539</v>
+        <v>6.0834460258483887</v>
       </c>
       <c r="D35" s="2">
         <v>6.1752529144287109</v>
       </c>
       <c r="E35" s="2">
-        <v>6.0914020538330078</v>
+        <v>6.0917863845825195</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.4653201103210449</v>
       </c>
       <c r="C36" s="2">
-        <v>5.5030708312988281</v>
+        <v>5.5018672943115234</v>
       </c>
       <c r="D36" s="2">
         <v>6.1984052658081055</v>
       </c>
       <c r="E36" s="2">
-        <v>6.1148285865783692</v>
+        <v>6.115135669708252</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>5.301506519317627</v>
       </c>
       <c r="C37" s="2">
-        <v>5.1403851509094238</v>
+        <v>5.1410651206970215</v>
       </c>
       <c r="D37" s="2">
         <v>6.1795182228088379</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0862255096435547</v>
+        <v>6.0866494178771973</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>6.1294403076171875</v>
       </c>
       <c r="C38" s="2">
-        <v>6.0478286743164063</v>
+        <v>6.0503435134887695</v>
       </c>
       <c r="D38" s="2">
         <v>6.1320891380310059</v>
       </c>
       <c r="E38" s="2">
-        <v>6.0504560470581055</v>
+        <v>6.0511999130249024</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>6.0337200164794922</v>
       </c>
       <c r="C39" s="2">
-        <v>6.0387139320373535</v>
+        <v>6.0387153625488281</v>
       </c>
       <c r="D39" s="2">
         <v>5.9034738540649414</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8021531105041504</v>
+        <v>5.8025474548339844</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>6.2534551620483399</v>
       </c>
       <c r="C40" s="2">
-        <v>6.207575798034668</v>
+        <v>6.2085108757019043</v>
       </c>
       <c r="D40" s="2">
         <v>5.9057126045227051</v>
       </c>
       <c r="E40" s="2">
-        <v>5.77923583984375</v>
+        <v>5.7798633575439453</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>6.2568740844726563</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0553975105285645</v>
+        <v>6.0559501647949219</v>
       </c>
       <c r="D41" s="2">
         <v>6.0877313613891602</v>
       </c>
       <c r="E41" s="2">
-        <v>5.9345154762268067</v>
+        <v>5.9352388381958008</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>6.3440008163452148</v>
       </c>
       <c r="C42" s="2">
-        <v>6.2170100212097168</v>
+        <v>6.2204766273498535</v>
       </c>
       <c r="D42" s="2">
         <v>6.1198782920837402</v>
       </c>
       <c r="E42" s="2">
-        <v>5.9848899841308594</v>
+        <v>5.9855794906616211</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.2554292678833008</v>
       </c>
       <c r="C43" s="2">
-        <v>4.9238409996032715</v>
+        <v>4.9225525856018067</v>
       </c>
       <c r="D43" s="2">
         <v>6.0441641807556152</v>
       </c>
       <c r="E43" s="2">
-        <v>5.9154739379882813</v>
+        <v>5.9161224365234375</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>6.1116690635681152</v>
       </c>
       <c r="C44" s="2">
-        <v>5.8793001174926758</v>
+        <v>5.8792891502380371</v>
       </c>
       <c r="D44" s="2">
         <v>6.055727481842041</v>
       </c>
       <c r="E44" s="2">
-        <v>5.8955678939819336</v>
+        <v>5.8963031768798828</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>7.1034855842590332</v>
       </c>
       <c r="C45" s="2">
-        <v>6.9005875587463379</v>
+        <v>6.9002480506896973</v>
       </c>
       <c r="D45" s="2">
         <v>6.1613049507141113</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0139346122741699</v>
+        <v>6.0140047073364258</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.5908308029174805</v>
       </c>
       <c r="C46" s="2">
-        <v>5.5937538146972656</v>
+        <v>5.5941305160522461</v>
       </c>
       <c r="D46" s="2">
         <v>6.293513298034668</v>
       </c>
       <c r="E46" s="2">
-        <v>6.1759414672851563</v>
+        <v>6.1757779121398926</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.4480128288269043</v>
       </c>
       <c r="C47" s="2">
-        <v>5.4230837821960449</v>
+        <v>5.4252276420593262</v>
       </c>
       <c r="D47" s="2">
         <v>6.3882975578308106</v>
       </c>
       <c r="E47" s="2">
-        <v>6.2987761497497559</v>
+        <v>6.298367977142334</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.1377911567687988</v>
       </c>
       <c r="C48" s="2">
-        <v>5.8595595359802246</v>
+        <v>5.8603420257568359</v>
       </c>
       <c r="D48" s="2">
         <v>6.5736865997314453</v>
       </c>
       <c r="E48" s="2">
-        <v>6.5239706039428711</v>
+        <v>6.524080753326416</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>7.2036523818969727</v>
       </c>
       <c r="C49" s="2">
-        <v>7.2728786468505859</v>
+        <v>7.267824649810791</v>
       </c>
       <c r="D49" s="2">
         <v>6.6156687736511231</v>
       </c>
       <c r="E49" s="2">
-        <v>6.5839347839355469</v>
+        <v>6.5838031768798828</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>7.4467463493347168</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5134601593017578</v>
+        <v>7.5119080543518067</v>
       </c>
       <c r="D50" s="2">
         <v>6.4916987419128418</v>
       </c>
       <c r="E50" s="2">
-        <v>6.4695935249328613</v>
+        <v>6.469365119934082</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>7.1970605850219727</v>
       </c>
       <c r="C51" s="2">
-        <v>7.3225202560424805</v>
+        <v>7.3237881660461426</v>
       </c>
       <c r="D51" s="2">
         <v>6.6447196006774902</v>
       </c>
       <c r="E51" s="2">
-        <v>6.6297297477722168</v>
+        <v>6.6291499137878418</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.9239311218261719</v>
       </c>
       <c r="C52" s="2">
-        <v>6.950589656829834</v>
+        <v>6.9539685249328613</v>
       </c>
       <c r="D52" s="2">
         <v>6.7505278587341309</v>
       </c>
       <c r="E52" s="2">
-        <v>6.7206225395202637</v>
+        <v>6.7193422317504883</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.489506721496582</v>
       </c>
       <c r="C53" s="2">
-        <v>6.4189796447753906</v>
+        <v>6.4167900085449219</v>
       </c>
       <c r="D53" s="2">
         <v>6.754941463470459</v>
       </c>
       <c r="E53" s="2">
-        <v>6.7537980079650879</v>
+        <v>6.7523922920227051</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.9877557754516602</v>
       </c>
       <c r="C54" s="2">
-        <v>5.8715176582336426</v>
+        <v>5.8703064918518067</v>
       </c>
       <c r="D54" s="2">
         <v>6.6327285766601563</v>
       </c>
       <c r="E54" s="2">
-        <v>6.6076645851135254</v>
+        <v>6.6066513061523438</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>6.9680194854736328</v>
       </c>
       <c r="C55" s="2">
-        <v>7.0349788665771484</v>
+        <v>7.0321927070617676</v>
       </c>
       <c r="D55" s="2">
         <v>6.5913233757019043</v>
       </c>
       <c r="E55" s="2">
-        <v>6.5720372200012207</v>
+        <v>6.5717086791992188</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>6.4002885818481445</v>
       </c>
       <c r="C56" s="2">
-        <v>6.2411189079284668</v>
+        <v>6.2369575500488281</v>
       </c>
       <c r="D56" s="2">
         <v>6.5557041168212891</v>
       </c>
       <c r="E56" s="2">
-        <v>6.5188212394714355</v>
+        <v>6.5185294151306152</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>6.1775131225585938</v>
       </c>
       <c r="C57" s="2">
-        <v>6.1581401824951172</v>
+        <v>6.1577954292297363</v>
       </c>
       <c r="D57" s="2">
         <v>6.4121708869934082</v>
       </c>
       <c r="E57" s="2">
-        <v>6.3631372451782227</v>
+        <v>6.3622736930847168</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>6.1037335395812988</v>
       </c>
       <c r="C58" s="2">
-        <v>5.9576764106750488</v>
+        <v>5.9561567306518555</v>
       </c>
       <c r="D58" s="2">
         <v>6.442194938659668</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4046063423156738</v>
+        <v>6.4037699699401856</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>7.0741024017333984</v>
       </c>
       <c r="C59" s="2">
-        <v>7.1928138732910156</v>
+        <v>7.1974234580993652</v>
       </c>
       <c r="D59" s="2">
         <v>6.434420108795166</v>
       </c>
       <c r="E59" s="2">
-        <v>6.3894529342651367</v>
+        <v>6.389063835144043</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.8764848709106445</v>
       </c>
       <c r="C60" s="2">
-        <v>6.8435750007629395</v>
+        <v>6.8451733589172363</v>
       </c>
       <c r="D60" s="2">
         <v>6.3491740226745605</v>
       </c>
       <c r="E60" s="2">
-        <v>6.2920646667480469</v>
+        <v>6.2920727729797363</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>5.6321353912353516</v>
       </c>
       <c r="C61" s="2">
-        <v>5.5494332313537598</v>
+        <v>5.5476670265197754</v>
       </c>
       <c r="D61" s="2">
         <v>6.3328986167907715</v>
       </c>
       <c r="E61" s="2">
-        <v>6.2691655158996582</v>
+        <v>6.2696833610534668</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>6.7597222328186035</v>
       </c>
       <c r="C62" s="2">
-        <v>6.7922029495239258</v>
+        <v>6.7902588844299316</v>
       </c>
       <c r="D62" s="2">
         <v>6.4095625877380371</v>
       </c>
       <c r="E62" s="2">
-        <v>6.3348479270935059</v>
+        <v>6.3353867530822754</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>5.9177823066711426</v>
       </c>
       <c r="C63" s="2">
-        <v>5.7351369857788086</v>
+        <v>5.7379498481750488</v>
       </c>
       <c r="D63" s="2">
         <v>6.3646349906921387</v>
       </c>
       <c r="E63" s="2">
-        <v>6.2863907814025879</v>
+        <v>6.2867908477783203</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>6.2008047103881836</v>
       </c>
       <c r="C64" s="2">
-        <v>6.158484935760498</v>
+        <v>6.1592717170715332</v>
       </c>
       <c r="D64" s="2">
         <v>6.2863035202026367</v>
       </c>
       <c r="E64" s="2">
-        <v>6.1762027740478516</v>
+        <v>6.1760969161987305</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.2538094520568848</v>
       </c>
       <c r="C65" s="2">
-        <v>6.0350255966186523</v>
+        <v>6.0354528427124023</v>
       </c>
       <c r="D65" s="2">
         <v>6.2225532531738281</v>
       </c>
       <c r="E65" s="2">
-        <v>6.0986099243164063</v>
+        <v>6.0985498428344727</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>6.8674893379211426</v>
       </c>
       <c r="C66" s="2">
-        <v>6.7492842674255371</v>
+        <v>6.7491278648376465</v>
       </c>
       <c r="D66" s="2">
         <v>6.2243313789367676</v>
       </c>
       <c r="E66" s="2">
-        <v>6.1031298637390137</v>
+        <v>6.1034016609191895</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>5.6993837356567383</v>
       </c>
       <c r="C67" s="2">
-        <v>5.5215616226196289</v>
+        <v>5.518791675567627</v>
       </c>
       <c r="D67" s="2">
         <v>6.0078926086425781</v>
       </c>
       <c r="E67" s="2">
-        <v>5.8831872940063477</v>
+        <v>5.8834877014160156</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>6.3691182136535645</v>
       </c>
       <c r="C68" s="2">
-        <v>6.2011189460754395</v>
+        <v>6.2011780738830566</v>
       </c>
       <c r="D68" s="2">
         <v>5.9613947868347168</v>
       </c>
       <c r="E68" s="2">
-        <v>5.8420295715332031</v>
+        <v>5.8418641090393066</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>6.3027334213256836</v>
       </c>
       <c r="C69" s="2">
-        <v>6.145240306854248</v>
+        <v>6.1472506523132324</v>
       </c>
       <c r="D69" s="2">
         <v>5.8975124359130859</v>
       </c>
       <c r="E69" s="2">
-        <v>5.7836942672729492</v>
+        <v>5.7832889556884766</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>5.6481375694274902</v>
       </c>
       <c r="C70" s="2">
-        <v>5.5901122093200684</v>
+        <v>5.591334342956543</v>
       </c>
       <c r="D70" s="2">
         <v>5.9526658058166504</v>
       </c>
       <c r="E70" s="2">
-        <v>5.8516712188720703</v>
+        <v>5.8514385223388672</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>4.8117733001708984</v>
       </c>
       <c r="C71" s="2">
-        <v>4.8127188682556152</v>
+        <v>4.8110322952270508</v>
       </c>
       <c r="D71" s="2">
         <v>5.9479408264160156</v>
       </c>
       <c r="E71" s="2">
-        <v>5.8746190071105957</v>
+        <v>5.8746128082275391</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>5.4993038177490234</v>
       </c>
       <c r="C72" s="2">
-        <v>5.3647189140319824</v>
+        <v>5.3633389472961426</v>
       </c>
       <c r="D72" s="2">
         <v>5.9946599006652832</v>
       </c>
       <c r="E72" s="2">
-        <v>5.9194364547729492</v>
+        <v>5.919550895690918</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>5.6258621215820313</v>
       </c>
       <c r="C73" s="2">
-        <v>5.6334671974182129</v>
+        <v>5.6320958137512207</v>
       </c>
       <c r="D73" s="2">
         <v>6.0496644973754883</v>
       </c>
       <c r="E73" s="2">
-        <v>5.9957427978515625</v>
+        <v>5.9958133697509766</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.7501888275146484</v>
       </c>
       <c r="C74" s="2">
-        <v>6.646817684173584</v>
+        <v>6.6487970352172852</v>
       </c>
       <c r="D74" s="2">
         <v>6.0850920677185059</v>
       </c>
       <c r="E74" s="2">
-        <v>6.0563840866088867</v>
+        <v>6.0559277534484863</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>6.8249673843383789</v>
       </c>
       <c r="C75" s="2">
-        <v>6.9558148384094238</v>
+        <v>6.9576964378356934</v>
       </c>
       <c r="D75" s="2">
         <v>6.1572055816650391</v>
       </c>
       <c r="E75" s="2">
-        <v>6.1268796920776367</v>
+        <v>6.1260185241699219</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>6.1198534965515137</v>
       </c>
       <c r="C76" s="2">
-        <v>5.9249181747436523</v>
+        <v>5.9232354164123535</v>
       </c>
       <c r="D76" s="2">
         <v>6.3904237747192383</v>
       </c>
       <c r="E76" s="2">
-        <v>6.3381099700927734</v>
+        <v>6.3372898101806641</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.864161491394043</v>
       </c>
       <c r="C77" s="2">
-        <v>6.8878765106201172</v>
+        <v>6.887537956237793</v>
       </c>
       <c r="D77" s="2">
         <v>6.4813189506530762</v>
       </c>
       <c r="E77" s="2">
-        <v>6.433016300201416</v>
+        <v>6.4321470260620117</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>6.6215806007385254</v>
       </c>
       <c r="C78" s="2">
-        <v>6.6910123825073242</v>
+        <v>6.6882815361022949</v>
       </c>
       <c r="D78" s="2">
         <v>6.6365394592285156</v>
       </c>
       <c r="E78" s="2">
-        <v>6.5691165924072266</v>
+        <v>6.5686793327331543</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>6.2971606254577637</v>
       </c>
       <c r="C79" s="2">
-        <v>6.224571704864502</v>
+        <v>6.2221493721008301</v>
       </c>
       <c r="D79" s="2">
         <v>6.6221461296081543</v>
       </c>
       <c r="E79" s="2">
-        <v>6.5289740562438965</v>
+        <v>6.528904914855957</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.9107375144958496</v>
       </c>
       <c r="C80" s="2">
-        <v>6.7137932777404785</v>
+        <v>6.7124762535095215</v>
       </c>
       <c r="D80" s="2">
         <v>6.5040831565856934</v>
       </c>
       <c r="E80" s="2">
-        <v>6.3680548667907715</v>
+        <v>6.3675899505615234</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>6.3173575401306152</v>
       </c>
       <c r="C81" s="2">
-        <v>6.2188730239868164</v>
+        <v>6.2170515060424805</v>
       </c>
       <c r="D81" s="2">
         <v>6.549626350402832</v>
       </c>
       <c r="E81" s="2">
-        <v>6.3966865539550781</v>
+        <v>6.3961391448974609</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>7.0228486061096192</v>
       </c>
       <c r="C82" s="2">
-        <v>6.8583698272705078</v>
+        <v>6.8608880043029785</v>
       </c>
       <c r="D82" s="2">
         <v>6.398247241973877</v>
       </c>
       <c r="E82" s="2">
-        <v>6.246457576751709</v>
+        <v>6.2459287643432617</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6206493377685547</v>
       </c>
       <c r="C83" s="2">
-        <v>6.2855348587036133</v>
+        <v>6.290827751159668</v>
       </c>
       <c r="D83" s="2">
         <v>6.3949055671691895</v>
       </c>
       <c r="E83" s="2">
-        <v>6.2308573722839356</v>
+        <v>6.2308120727539063</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>5.7624011039733887</v>
       </c>
       <c r="C84" s="2">
-        <v>5.5075454711914063</v>
+        <v>5.5058612823486328</v>
       </c>
       <c r="D84" s="2">
         <v>6.4814581871032715</v>
       </c>
       <c r="E84" s="2">
-        <v>6.3284869194030762</v>
+        <v>6.3285131454467774</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>6.5297408103942871</v>
       </c>
       <c r="C85" s="2">
-        <v>6.1826024055480957</v>
+        <v>6.1801795959472656</v>
       </c>
       <c r="D85" s="2">
         <v>6.6420841217041016</v>
       </c>
       <c r="E85" s="2">
-        <v>6.4796028137207031</v>
+        <v>6.4798836708068848</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>5.5017471313476563</v>
       </c>
       <c r="C86" s="2">
-        <v>5.5358171463012695</v>
+        <v>5.5356435775756836</v>
       </c>
       <c r="D86" s="2">
         <v>6.8498764038085938</v>
       </c>
       <c r="E86" s="2">
-        <v>6.6819686889648438</v>
+        <v>6.6825246810913086</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>6.5915093421936035</v>
       </c>
       <c r="C87" s="2">
-        <v>6.5506095886230469</v>
+        <v>6.5522317886352539</v>
       </c>
       <c r="D87" s="2">
         <v>6.8130464553833008</v>
       </c>
       <c r="E87" s="2">
-        <v>6.6268219947814941</v>
+        <v>6.6266865730285645</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>7.076134204864502</v>
       </c>
       <c r="C88" s="2">
-        <v>7.1032376289367676</v>
+        <v>7.1014595031738281</v>
       </c>
       <c r="D88" s="2">
         <v>6.9035587310791016</v>
       </c>
       <c r="E88" s="2">
-        <v>6.7479166984558106</v>
+        <v>6.7473902702331543</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>8.3563680648803711</v>
       </c>
       <c r="C89" s="2">
-        <v>8.0738353729248047</v>
+        <v>8.0748119354248047</v>
       </c>
       <c r="D89" s="2">
         <v>7.0460209846496582</v>
       </c>
       <c r="E89" s="2">
-        <v>6.8992104530334473</v>
+        <v>6.8986892700195313</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>8.1874904632568359</v>
       </c>
       <c r="C90" s="2">
-        <v>8.0401678085327148</v>
+        <v>8.0408182144165039</v>
       </c>
       <c r="D90" s="2">
         <v>7.046541690826416</v>
       </c>
       <c r="E90" s="2">
-        <v>6.9251246452331543</v>
+        <v>6.9245190620422363</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>6.6913776397705078</v>
       </c>
       <c r="C91" s="2">
-        <v>6.3620467185974121</v>
+        <v>6.3583440780639649</v>
       </c>
       <c r="D91" s="2">
         <v>7.2546029090881348</v>
       </c>
       <c r="E91" s="2">
-        <v>7.0979909896850586</v>
+        <v>7.0975079536437988</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>7.4352602958679199</v>
       </c>
       <c r="C92" s="2">
-        <v>7.3753900527954102</v>
+        <v>7.3771638870239258</v>
       </c>
       <c r="D92" s="2">
         <v>7.1930127143859863</v>
       </c>
       <c r="E92" s="2">
-        <v>7.045590877532959</v>
+        <v>7.0448575019836426</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>7.0445599555969238</v>
       </c>
       <c r="C93" s="2">
-        <v>6.8691854476928711</v>
+        <v>6.8675503730773926</v>
       </c>
       <c r="D93" s="2">
         <v>7.2433185577392578</v>
       </c>
       <c r="E93" s="2">
-        <v>7.0921220779418945</v>
+        <v>7.0914907455444336</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>6.5344271659851074</v>
       </c>
       <c r="C94" s="2">
-        <v>6.4158310890197754</v>
+        <v>6.4126501083374024</v>
       </c>
       <c r="D94" s="2">
         <v>7.1680703163146973</v>
       </c>
       <c r="E94" s="2">
-        <v>7.0408201217651367</v>
+        <v>7.0403428077697754</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>7.3743009567260742</v>
       </c>
       <c r="C95" s="2">
-        <v>7.0916132926940918</v>
+        <v>7.0925402641296387</v>
       </c>
       <c r="D95" s="2">
         <v>6.9110846519470215</v>
       </c>
       <c r="E95" s="2">
-        <v>6.7972874641418457</v>
+        <v>6.7965612411499023</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>6.0371966361999512</v>
       </c>
       <c r="C96" s="2">
-        <v>6.0790109634399414</v>
+        <v>6.0783777236938477</v>
       </c>
       <c r="D96" s="2">
         <v>6.8539166450500488</v>
       </c>
       <c r="E96" s="2">
-        <v>6.7728886604309082</v>
+        <v>6.7730207443237305</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>7.5288867950439453</v>
       </c>
       <c r="C97" s="2">
-        <v>7.5220179557800293</v>
+        <v>7.5211620330810547</v>
       </c>
       <c r="D97" s="2">
         <v>6.7651395797729492</v>
       </c>
       <c r="E97" s="2">
-        <v>6.67108154296875</v>
+        <v>6.6713986396789551</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>7.6791324615478516</v>
       </c>
       <c r="C98" s="2">
-        <v>7.6121187210083008</v>
+        <v>7.6144795417785645</v>
       </c>
       <c r="D98" s="2">
         <v>6.5980830192565918</v>
       </c>
       <c r="E98" s="2">
-        <v>6.5006771087646484</v>
+        <v>6.5011920928955078</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.8746209144592285</v>
       </c>
       <c r="C99" s="2">
-        <v>5.8483738899230957</v>
+        <v>5.8467836380004883</v>
       </c>
       <c r="D99" s="2">
         <v>6.5619583129882813</v>
       </c>
       <c r="E99" s="2">
-        <v>6.4679608345031738</v>
+        <v>6.4687910079956055</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.1768641471862793</v>
       </c>
       <c r="C100" s="2">
-        <v>6.1424560546875</v>
+        <v>6.146479606628418</v>
       </c>
       <c r="D100" s="2">
         <v>6.5209565162658691</v>
       </c>
       <c r="E100" s="2">
-        <v>6.4520001411437988</v>
+        <v>6.4526128768920898</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>6.6362686157226563</v>
       </c>
       <c r="C101" s="2">
-        <v>6.4591245651245117</v>
+        <v>6.4625654220581055</v>
       </c>
       <c r="D101" s="2">
         <v>6.5136809349060059</v>
       </c>
       <c r="E101" s="2">
-        <v>6.4348349571228027</v>
+        <v>6.4358019828796387</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.5410513877868652</v>
       </c>
       <c r="C102" s="2">
-        <v>5.3355488777160645</v>
+        <v>5.3356914520263672</v>
       </c>
       <c r="D102" s="2">
         <v>6.3885221481323242</v>
       </c>
       <c r="E102" s="2">
-        <v>6.2895936965942383</v>
+        <v>6.2905488014221192</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>6.2093029022216797</v>
       </c>
       <c r="C103" s="2">
-        <v>6.1213846206665039</v>
+        <v>6.121039867401123</v>
       </c>
       <c r="D103" s="2">
         <v>6.1262545585632324</v>
       </c>
       <c r="E103" s="2">
-        <v>6.0229592323303223</v>
+        <v>6.0235233306884766</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>7.0052847862243652</v>
       </c>
       <c r="C104" s="2">
-        <v>6.9479660987854004</v>
+        <v>6.9469385147094727</v>
       </c>
       <c r="D104" s="2">
         <v>6.1156749725341797</v>
       </c>
       <c r="E104" s="2">
-        <v>6.0177621841430664</v>
+        <v>6.0183730125427246</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>5.9717144966125488</v>
       </c>
       <c r="C105" s="2">
-        <v>5.9245219230651855</v>
+        <v>5.9270792007446289</v>
       </c>
       <c r="D105" s="2">
         <v>6.0591340065002442</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9653711318969727</v>
+        <v>5.9653339385986328</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>6.4024615287780762</v>
       </c>
       <c r="C106" s="2">
-        <v>6.2148504257202149</v>
+        <v>6.2138814926147461</v>
       </c>
       <c r="D106" s="2">
         <v>5.9271655082702637</v>
       </c>
       <c r="E106" s="2">
-        <v>5.8281416893005371</v>
+        <v>5.8273124694824219</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>5.318723201751709</v>
       </c>
       <c r="C107" s="2">
-        <v>5.2124061584472656</v>
+        <v>5.2112493515014649</v>
       </c>
       <c r="D107" s="2">
         <v>5.8447022438049317</v>
       </c>
       <c r="E107" s="2">
-        <v>5.7309398651123047</v>
+        <v>5.7301316261291504</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>5.7794046401977539</v>
       </c>
       <c r="C108" s="2">
-        <v>5.801602840423584</v>
+        <v>5.8004322052001953</v>
       </c>
       <c r="D108" s="2">
         <v>5.8590126037597656</v>
       </c>
       <c r="E108" s="2">
-        <v>5.7297701835632324</v>
+        <v>5.7288384437561035</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>5.6679949760437012</v>
       </c>
       <c r="C109" s="2">
-        <v>5.6709365844726563</v>
+        <v>5.6691265106201172</v>
       </c>
       <c r="D109" s="2">
         <v>5.7989025115966797</v>
       </c>
       <c r="E109" s="2">
-        <v>5.6838269233703613</v>
+        <v>5.6828999519348145</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>5.4485507011413574</v>
       </c>
       <c r="C110" s="2">
-        <v>5.2240591049194336</v>
+        <v>5.220372200012207</v>
       </c>
       <c r="D110" s="2">
         <v>5.830256462097168</v>
       </c>
       <c r="E110" s="2">
-        <v>5.6984677314758301</v>
+        <v>5.6972322463989258</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>4.7988824844360352</v>
       </c>
       <c r="C111" s="2">
-        <v>4.4607315063476563</v>
+        <v>4.4610633850097656</v>
       </c>
       <c r="D111" s="2">
         <v>5.9050545692443848</v>
       </c>
       <c r="E111" s="2">
-        <v>5.7593398094177246</v>
+        <v>5.758476734161377</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>6.3380980491638184</v>
       </c>
       <c r="C112" s="2">
-        <v>6.1108589172363281</v>
+        <v>6.1094050407409668</v>
       </c>
       <c r="D112" s="2">
         <v>6.2336416244506836</v>
       </c>
       <c r="E112" s="2">
-        <v>6.0863518714904785</v>
+        <v>6.0854835510253906</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>6.4642910957336426</v>
       </c>
       <c r="C113" s="2">
-        <v>6.5344767570495605</v>
+        <v>6.5334882736206055</v>
       </c>
       <c r="D113" s="2">
         <v>6.464024543762207</v>
       </c>
       <c r="E113" s="2">
-        <v>6.2962760925292969</v>
+        <v>6.2954850196838379</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>6.2539033889770508</v>
       </c>
       <c r="C114" s="2">
-        <v>6.0562868118286133</v>
+        <v>6.0560712814331055</v>
       </c>
       <c r="D114" s="2">
         <v>6.4126667976379395</v>
       </c>
       <c r="E114" s="2">
-        <v>6.2622804641723633</v>
+        <v>6.261685848236084</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>7.0756411552429199</v>
       </c>
       <c r="C115" s="2">
-        <v>6.7627005577087402</v>
+        <v>6.7650842666625977</v>
       </c>
       <c r="D115" s="2">
         <v>6.4821228981018066</v>
       </c>
       <c r="E115" s="2">
-        <v>6.2997326850891113</v>
+        <v>6.2997159957885742</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>8.2760095596313477</v>
       </c>
       <c r="C116" s="2">
-        <v>8.1555137634277344</v>
+        <v>8.1543102264404297</v>
       </c>
       <c r="D116" s="2">
         <v>6.6441183090209961</v>
       </c>
       <c r="E116" s="2">
-        <v>6.4803028106689453</v>
+        <v>6.4802885055541992</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>7.8528504371643067</v>
       </c>
       <c r="C117" s="2">
-        <v>7.6909213066101074</v>
+        <v>7.6904430389404297</v>
       </c>
       <c r="D117" s="2">
         <v>6.5947327613830566</v>
       </c>
       <c r="E117" s="2">
-        <v>6.4163780212402344</v>
+        <v>6.4164104461669922</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>5.2057738304138184</v>
       </c>
       <c r="C118" s="2">
-        <v>5.3649773597717285</v>
+        <v>5.364933967590332</v>
       </c>
       <c r="D118" s="2">
         <v>6.8340396881103516</v>
       </c>
       <c r="E118" s="2">
-        <v>6.6309967041015625</v>
+        <v>6.6311664581298828</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>6.0736546516418457</v>
       </c>
       <c r="C119" s="2">
-        <v>5.5611262321472168</v>
+        <v>5.5626459121704102</v>
       </c>
       <c r="D119" s="2">
         <v>6.8994770050048828</v>
       </c>
       <c r="E119" s="2">
-        <v>6.717381477355957</v>
+        <v>6.7177867889404297</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>6.2568421363830566</v>
       </c>
       <c r="C120" s="2">
-        <v>6.0858645439147949</v>
+        <v>6.0862131118774414</v>
       </c>
       <c r="D120" s="2">
         <v>6.9154772758483887</v>
       </c>
       <c r="E120" s="2">
-        <v>6.7734384536743164</v>
+        <v>6.7739148139953613</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>5.8936285972595215</v>
       </c>
       <c r="C121" s="2">
-        <v>5.5355367660522461</v>
+        <v>5.5345029830932617</v>
       </c>
       <c r="D121" s="2">
         <v>6.8374671936035156</v>
       </c>
       <c r="E121" s="2">
-        <v>6.6913466453552246</v>
+        <v>6.6921510696411133</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.6180524826049805</v>
       </c>
       <c r="C122" s="2">
-        <v>8.4660434722900391</v>
+        <v>8.4662914276123047</v>
       </c>
       <c r="D122" s="2">
         <v>6.7066268920898438</v>
       </c>
       <c r="E122" s="2">
-        <v>6.5488638877868652</v>
+        <v>6.5494723320007324</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>6.842841625213623</v>
       </c>
       <c r="C123" s="2">
-        <v>6.8337512016296387</v>
+        <v>6.8356566429138184</v>
       </c>
       <c r="D123" s="2">
         <v>6.8168668746948242</v>
       </c>
       <c r="E123" s="2">
-        <v>6.6278557777404785</v>
+        <v>6.6283168792724609</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>7.2196402549743652</v>
       </c>
       <c r="C124" s="2">
-        <v>7.2672123908996582</v>
+        <v>7.270235538482666</v>
       </c>
       <c r="D124" s="2">
         <v>6.9036989212036133</v>
       </c>
       <c r="E124" s="2">
-        <v>6.7426438331604004</v>
+        <v>6.7427401542663574</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>7.5739192962646484</v>
       </c>
       <c r="C125" s="2">
-        <v>7.4166855812072754</v>
+        <v>7.4184370040893555</v>
       </c>
       <c r="D125" s="2">
         <v>6.8307151794433594</v>
       </c>
       <c r="E125" s="2">
-        <v>6.6805562973022461</v>
+        <v>6.6804656982421875</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>6.675290584564209</v>
       </c>
       <c r="C126" s="2">
-        <v>6.4085760116577149</v>
+        <v>6.4063324928283691</v>
       </c>
       <c r="D126" s="2">
-        <v>6.9478511810302734</v>
+        <v>6.8410639762878418</v>
       </c>
       <c r="E126" s="2">
-        <v>6.8236837387084961</v>
+        <v>6.7099986076354981</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.197932243347168</v>
       </c>
       <c r="C127" s="2">
-        <v>6.0759057998657227</v>
+        <v>6.0745368003845215</v>
       </c>
       <c r="D127" s="2">
-        <v>6.7092509269714355</v>
+        <v>6.6189403533935547</v>
       </c>
       <c r="E127" s="2">
-        <v>6.5890612602233887</v>
+        <v>6.4904618263244629</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8551449775695801</v>
       </c>
       <c r="C128" s="2">
-        <v>6.5942206382751465</v>
+        <v>6.5924534797668457</v>
       </c>
       <c r="D128" s="2">
-        <v>6.6869854927062988</v>
+        <v>6.5869541168212891</v>
       </c>
       <c r="E128" s="2">
-        <v>6.5482797622680664</v>
+        <v>6.4411482810974121</v>
       </c>
     </row>
     <row r="129">
@@ -2225,23 +2225,31 @@
         <v>5.5999865531921387</v>
       </c>
       <c r="C129" s="2">
-        <v>5.5270767211914063</v>
+        <v>5.5257453918457031</v>
       </c>
       <c r="D129" s="2">
-        <v>6.5804548263549805</v>
+        <v>6.48150634765625</v>
       </c>
       <c r="E129" s="2">
-        <v>6.4044928550720215</v>
+        <v>6.3029670715332031</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>45170</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="B130" s="2">
+        <v>5.9867658615112305</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5.8002972602844238</v>
+      </c>
+      <c r="D130" s="2">
+        <v>6.263023853302002</v>
+      </c>
+      <c r="E130" s="2">
+        <v>6.0798730850219727</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
@@ -2297,6 +2305,51 @@
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_stdev.xlsx
+++ b/SCE_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.3766160011291504</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3252291679382324</v>
+        <v>4.3250226974487305</v>
       </c>
       <c r="D7" s="2">
         <v>5.3208756446838379</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1918501853942871</v>
+        <v>5.1943740844726563</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>4.9273009300231934</v>
       </c>
       <c r="C8" s="2">
-        <v>4.8135523796081543</v>
+        <v>4.8070144653320313</v>
       </c>
       <c r="D8" s="2">
         <v>5.6248149871826172</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5259180068969727</v>
+        <v>5.5278944969177246</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.5088901519775391</v>
       </c>
       <c r="C9" s="2">
-        <v>5.3201093673706055</v>
+        <v>5.3203816413879395</v>
       </c>
       <c r="D9" s="2">
         <v>5.7272243499755859</v>
       </c>
       <c r="E9" s="2">
-        <v>5.5858864784240723</v>
+        <v>5.5874781608581543</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.08917236328125</v>
       </c>
       <c r="C10" s="2">
-        <v>4.9364395141601563</v>
+        <v>4.9413251876831055</v>
       </c>
       <c r="D10" s="2">
         <v>5.7389001846313477</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5787720680236817</v>
+        <v>5.5807747840881348</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>6.7023992538452148</v>
       </c>
       <c r="C11" s="2">
-        <v>6.5639214515686035</v>
+        <v>6.5781254768371582</v>
       </c>
       <c r="D11" s="2">
         <v>5.8502249717712402</v>
       </c>
       <c r="E11" s="2">
-        <v>5.6780781745910645</v>
+        <v>5.6795845031738281</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>7.1445112228393555</v>
       </c>
       <c r="C12" s="2">
-        <v>7.1962552070617676</v>
+        <v>7.1954984664916992</v>
       </c>
       <c r="D12" s="2">
         <v>6.1374540328979492</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9669365882873535</v>
+        <v>5.9683856964111328</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>6.3416814804077148</v>
       </c>
       <c r="C13" s="2">
-        <v>5.9456987380981445</v>
+        <v>5.9449801445007324</v>
       </c>
       <c r="D13" s="2">
         <v>6.369962215423584</v>
       </c>
       <c r="E13" s="2">
-        <v>6.2049775123596191</v>
+        <v>6.2066307067871094</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>5.8206300735473633</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5289702415466309</v>
+        <v>5.5338506698608398</v>
       </c>
       <c r="D14" s="2">
         <v>6.3614044189453125</v>
       </c>
       <c r="E14" s="2">
-        <v>6.2041835784912109</v>
+        <v>6.2050395011901855</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.7408227920532227</v>
       </c>
       <c r="C15" s="2">
-        <v>6.4725265502929688</v>
+        <v>6.4700617790222168</v>
       </c>
       <c r="D15" s="2">
         <v>6.565824031829834</v>
       </c>
       <c r="E15" s="2">
-        <v>6.4170064926147461</v>
+        <v>6.4160819053649902</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.9616789817810059</v>
       </c>
       <c r="C16" s="2">
-        <v>6.924957275390625</v>
+        <v>6.9242334365844727</v>
       </c>
       <c r="D16" s="2">
         <v>6.5533127784729004</v>
       </c>
       <c r="E16" s="2">
-        <v>6.4065108299255371</v>
+        <v>6.4031138420104981</v>
       </c>
     </row>
     <row r="17">
@@ -321,13 +321,13 @@
         <v>7.0198736190795899</v>
       </c>
       <c r="C17" s="2">
-        <v>6.9559173583984375</v>
+        <v>6.9512205123901367</v>
       </c>
       <c r="D17" s="2">
         <v>6.4752511978149414</v>
       </c>
       <c r="E17" s="2">
-        <v>6.2936396598815918</v>
+        <v>6.2902255058288574</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>5.4318685531616211</v>
       </c>
       <c r="C18" s="2">
-        <v>5.3129673004150391</v>
+        <v>5.3060617446899414</v>
       </c>
       <c r="D18" s="2">
         <v>6.4657926559448242</v>
       </c>
       <c r="E18" s="2">
-        <v>6.296717643737793</v>
+        <v>6.29266357421875</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>6.928950309753418</v>
       </c>
       <c r="C19" s="2">
-        <v>6.8518438339233398</v>
+        <v>6.8407049179077148</v>
       </c>
       <c r="D19" s="2">
         <v>6.5046501159667969</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3765015602111817</v>
+        <v>6.3717069625854492</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>6.5897998809814453</v>
       </c>
       <c r="C20" s="2">
-        <v>6.4694609642028809</v>
+        <v>6.4614129066467285</v>
       </c>
       <c r="D20" s="2">
         <v>6.5902962684631348</v>
       </c>
       <c r="E20" s="2">
-        <v>6.4657115936279297</v>
+        <v>6.4608869552612305</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>6.4419560432434082</v>
       </c>
       <c r="C21" s="2">
-        <v>6.1804146766662598</v>
+        <v>6.1795048713684082</v>
       </c>
       <c r="D21" s="2">
         <v>6.5911030769348145</v>
       </c>
       <c r="E21" s="2">
-        <v>6.4684457778930664</v>
+        <v>6.4645862579345703</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>6.2565526962280273</v>
       </c>
       <c r="C22" s="2">
-        <v>5.9734001159667969</v>
+        <v>5.9669227600097656</v>
       </c>
       <c r="D22" s="2">
         <v>6.5778684616088867</v>
       </c>
       <c r="E22" s="2">
-        <v>6.4396462440490723</v>
+        <v>6.4370636940002442</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>6.1703476905822754</v>
       </c>
       <c r="C23" s="2">
-        <v>6.2470259666442871</v>
+        <v>6.2452406883239746</v>
       </c>
       <c r="D23" s="2">
         <v>6.8175868988037109</v>
       </c>
       <c r="E23" s="2">
-        <v>6.6785340309143066</v>
+        <v>6.6763749122619629</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.5116400718688965</v>
       </c>
       <c r="C24" s="2">
-        <v>7.2754154205322266</v>
+        <v>7.272679328918457</v>
       </c>
       <c r="D24" s="2">
         <v>6.6747927665710449</v>
       </c>
       <c r="E24" s="2">
-        <v>6.5426006317138672</v>
+        <v>6.5403361320495605</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>6.9689383506774902</v>
       </c>
       <c r="C25" s="2">
-        <v>6.9495654106140137</v>
+        <v>6.9575290679931641</v>
       </c>
       <c r="D25" s="2">
         <v>6.5991482734680176</v>
       </c>
       <c r="E25" s="2">
-        <v>6.5029788017272949</v>
+        <v>6.5010566711425781</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>6.9007606506347656</v>
       </c>
       <c r="C26" s="2">
-        <v>6.6967229843139648</v>
+        <v>6.7035174369812012</v>
       </c>
       <c r="D26" s="2">
         <v>6.5725560188293457</v>
       </c>
       <c r="E26" s="2">
-        <v>6.4821572303771973</v>
+        <v>6.4809198379516602</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>7.5893359184265137</v>
       </c>
       <c r="C27" s="2">
-        <v>7.4629569053649902</v>
+        <v>7.4598627090454102</v>
       </c>
       <c r="D27" s="2">
         <v>6.5490598678588867</v>
       </c>
       <c r="E27" s="2">
-        <v>6.4849314689636231</v>
+        <v>6.4852523803710938</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.6438055038452148</v>
       </c>
       <c r="C28" s="2">
-        <v>5.6284418106079102</v>
+        <v>5.616356372833252</v>
       </c>
       <c r="D28" s="2">
         <v>6.5775609016418457</v>
       </c>
       <c r="E28" s="2">
-        <v>6.4921875</v>
+        <v>6.4934654235839844</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>5.9089961051940918</v>
       </c>
       <c r="C29" s="2">
-        <v>6.1128678321838379</v>
+        <v>6.1078953742980957</v>
       </c>
       <c r="D29" s="2">
         <v>6.4952526092529297</v>
       </c>
       <c r="E29" s="2">
-        <v>6.4104213714599609</v>
+        <v>6.4116311073303223</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.2026290893554688</v>
       </c>
       <c r="C30" s="2">
-        <v>5.9930195808410645</v>
+        <v>5.9982728958129883</v>
       </c>
       <c r="D30" s="2">
         <v>6.533477783203125</v>
       </c>
       <c r="E30" s="2">
-        <v>6.4338502883911133</v>
+        <v>6.4331579208374024</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0450873374938965</v>
       </c>
       <c r="C31" s="2">
-        <v>5.9983687400817871</v>
+        <v>6.0059175491333008</v>
       </c>
       <c r="D31" s="2">
         <v>6.4435620307922363</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3657083511352539</v>
+        <v>6.3637275695800781</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>6.4268560409545898</v>
       </c>
       <c r="C32" s="2">
-        <v>6.3123283386230469</v>
+        <v>6.3191585540771484</v>
       </c>
       <c r="D32" s="2">
         <v>6.2075600624084473</v>
       </c>
       <c r="E32" s="2">
-        <v>6.1478095054626465</v>
+        <v>6.146998405456543</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.7708635330200195</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5395188331604004</v>
+        <v>6.5361695289611816</v>
       </c>
       <c r="D33" s="2">
         <v>6.1695270538330078</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0936565399169922</v>
+        <v>6.0941638946533203</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>7.3129644393920898</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1604256629943848</v>
+        <v>7.1512689590454102</v>
       </c>
       <c r="D34" s="2">
         <v>6.1940207481384277</v>
       </c>
       <c r="E34" s="2">
-        <v>6.0867090225219727</v>
+        <v>6.0885257720947266</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>6.091519832611084</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0834460258483887</v>
+        <v>6.0786476135253906</v>
       </c>
       <c r="D35" s="2">
         <v>6.1752529144287109</v>
       </c>
       <c r="E35" s="2">
-        <v>6.0917863845825195</v>
+        <v>6.0933318138122559</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.4653201103210449</v>
       </c>
       <c r="C36" s="2">
-        <v>5.5018672943115234</v>
+        <v>5.5092973709106445</v>
       </c>
       <c r="D36" s="2">
         <v>6.1984052658081055</v>
       </c>
       <c r="E36" s="2">
-        <v>6.115135669708252</v>
+        <v>6.1143269538879395</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>5.301506519317627</v>
       </c>
       <c r="C37" s="2">
-        <v>5.1410651206970215</v>
+        <v>5.1408452987670899</v>
       </c>
       <c r="D37" s="2">
         <v>6.1795182228088379</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0866494178771973</v>
+        <v>6.0857563018798828</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>6.1294403076171875</v>
       </c>
       <c r="C38" s="2">
-        <v>6.0503435134887695</v>
+        <v>6.057152271270752</v>
       </c>
       <c r="D38" s="2">
         <v>6.1320891380310059</v>
       </c>
       <c r="E38" s="2">
-        <v>6.0511999130249024</v>
+        <v>6.0508990287780762</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>6.0337200164794922</v>
       </c>
       <c r="C39" s="2">
-        <v>6.0387153625488281</v>
+        <v>6.0415291786193848</v>
       </c>
       <c r="D39" s="2">
         <v>5.9034738540649414</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8025474548339844</v>
+        <v>5.8033361434936524</v>
       </c>
     </row>
     <row r="40">
@@ -712,13 +712,13 @@
         <v>6.2534551620483399</v>
       </c>
       <c r="C40" s="2">
-        <v>6.2085108757019043</v>
+        <v>6.1948747634887695</v>
       </c>
       <c r="D40" s="2">
         <v>5.9057126045227051</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7798633575439453</v>
+        <v>5.7817835807800293</v>
       </c>
     </row>
     <row r="41">
@@ -729,13 +729,13 @@
         <v>6.2568740844726563</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0559501647949219</v>
+        <v>6.0620226860046387</v>
       </c>
       <c r="D41" s="2">
         <v>6.0877313613891602</v>
       </c>
       <c r="E41" s="2">
-        <v>5.9352388381958008</v>
+        <v>5.9362545013427734</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>6.3440008163452148</v>
       </c>
       <c r="C42" s="2">
-        <v>6.2204766273498535</v>
+        <v>6.2224540710449219</v>
       </c>
       <c r="D42" s="2">
         <v>6.1198782920837402</v>
       </c>
       <c r="E42" s="2">
-        <v>5.9855794906616211</v>
+        <v>5.9862384796142578</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.2554292678833008</v>
       </c>
       <c r="C43" s="2">
-        <v>4.9225525856018067</v>
+        <v>4.9232029914855957</v>
       </c>
       <c r="D43" s="2">
         <v>6.0441641807556152</v>
       </c>
       <c r="E43" s="2">
-        <v>5.9161224365234375</v>
+        <v>5.9147682189941406</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>6.1116690635681152</v>
       </c>
       <c r="C44" s="2">
-        <v>5.8792891502380371</v>
+        <v>5.8846726417541504</v>
       </c>
       <c r="D44" s="2">
         <v>6.055727481842041</v>
       </c>
       <c r="E44" s="2">
-        <v>5.8963031768798828</v>
+        <v>5.8956642150878906</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>7.1034855842590332</v>
       </c>
       <c r="C45" s="2">
-        <v>6.9002480506896973</v>
+        <v>6.899538516998291</v>
       </c>
       <c r="D45" s="2">
         <v>6.1613049507141113</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0140047073364258</v>
+        <v>6.0152077674865723</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.5908308029174805</v>
       </c>
       <c r="C46" s="2">
-        <v>5.5941305160522461</v>
+        <v>5.5906996726989746</v>
       </c>
       <c r="D46" s="2">
         <v>6.293513298034668</v>
       </c>
       <c r="E46" s="2">
-        <v>6.1757779121398926</v>
+        <v>6.1772332191467285</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.4480128288269043</v>
       </c>
       <c r="C47" s="2">
-        <v>5.4252276420593262</v>
+        <v>5.4139208793640137</v>
       </c>
       <c r="D47" s="2">
         <v>6.3882975578308106</v>
       </c>
       <c r="E47" s="2">
-        <v>6.298367977142334</v>
+        <v>6.2998385429382324</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.1377911567687988</v>
       </c>
       <c r="C48" s="2">
-        <v>5.8603420257568359</v>
+        <v>5.8695931434631348</v>
       </c>
       <c r="D48" s="2">
         <v>6.5736865997314453</v>
       </c>
       <c r="E48" s="2">
-        <v>6.524080753326416</v>
+        <v>6.5247855186462402</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>7.2036523818969727</v>
       </c>
       <c r="C49" s="2">
-        <v>7.267824649810791</v>
+        <v>7.2707648277282715</v>
       </c>
       <c r="D49" s="2">
         <v>6.6156687736511231</v>
       </c>
       <c r="E49" s="2">
-        <v>6.5838031768798828</v>
+        <v>6.5843625068664551</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>7.4467463493347168</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5119080543518067</v>
+        <v>7.5202522277832031</v>
       </c>
       <c r="D50" s="2">
         <v>6.4916987419128418</v>
       </c>
       <c r="E50" s="2">
-        <v>6.469365119934082</v>
+        <v>6.4695949554443359</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>7.1970605850219727</v>
       </c>
       <c r="C51" s="2">
-        <v>7.3237881660461426</v>
+        <v>7.325901985168457</v>
       </c>
       <c r="D51" s="2">
         <v>6.6447196006774902</v>
       </c>
       <c r="E51" s="2">
-        <v>6.6291499137878418</v>
+        <v>6.6299524307250977</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.9239311218261719</v>
       </c>
       <c r="C52" s="2">
-        <v>6.9539685249328613</v>
+        <v>6.9477262496948242</v>
       </c>
       <c r="D52" s="2">
         <v>6.7505278587341309</v>
       </c>
       <c r="E52" s="2">
-        <v>6.7193422317504883</v>
+        <v>6.7216868400573731</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.489506721496582</v>
       </c>
       <c r="C53" s="2">
-        <v>6.4167900085449219</v>
+        <v>6.4208645820617676</v>
       </c>
       <c r="D53" s="2">
         <v>6.754941463470459</v>
       </c>
       <c r="E53" s="2">
-        <v>6.7523922920227051</v>
+        <v>6.7539105415344238</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.9877557754516602</v>
       </c>
       <c r="C54" s="2">
-        <v>5.8703064918518067</v>
+        <v>5.8666300773620606</v>
       </c>
       <c r="D54" s="2">
         <v>6.6327285766601563</v>
       </c>
       <c r="E54" s="2">
-        <v>6.6066513061523438</v>
+        <v>6.606689453125</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>6.9680194854736328</v>
       </c>
       <c r="C55" s="2">
-        <v>7.0321927070617676</v>
+        <v>7.0339164733886719</v>
       </c>
       <c r="D55" s="2">
         <v>6.5913233757019043</v>
       </c>
       <c r="E55" s="2">
-        <v>6.5717086791992188</v>
+        <v>6.5708236694335938</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>6.4002885818481445</v>
       </c>
       <c r="C56" s="2">
-        <v>6.2369575500488281</v>
+        <v>6.2395315170288086</v>
       </c>
       <c r="D56" s="2">
         <v>6.5557041168212891</v>
       </c>
       <c r="E56" s="2">
-        <v>6.5185294151306152</v>
+        <v>6.5180253982543945</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>6.1775131225585938</v>
       </c>
       <c r="C57" s="2">
-        <v>6.1577954292297363</v>
+        <v>6.1596083641052246</v>
       </c>
       <c r="D57" s="2">
         <v>6.4121708869934082</v>
       </c>
       <c r="E57" s="2">
-        <v>6.3622736930847168</v>
+        <v>6.3620057106018066</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>6.1037335395812988</v>
       </c>
       <c r="C58" s="2">
-        <v>5.9561567306518555</v>
+        <v>5.9457755088806152</v>
       </c>
       <c r="D58" s="2">
         <v>6.442194938659668</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4037699699401856</v>
+        <v>6.4032845497131348</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>7.0741024017333984</v>
       </c>
       <c r="C59" s="2">
-        <v>7.1974234580993652</v>
+        <v>7.1974587440490723</v>
       </c>
       <c r="D59" s="2">
         <v>6.434420108795166</v>
       </c>
       <c r="E59" s="2">
-        <v>6.389063835144043</v>
+        <v>6.3882174491882324</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.8764848709106445</v>
       </c>
       <c r="C60" s="2">
-        <v>6.8451733589172363</v>
+        <v>6.8507165908813477</v>
       </c>
       <c r="D60" s="2">
         <v>6.3491740226745605</v>
       </c>
       <c r="E60" s="2">
-        <v>6.2920727729797363</v>
+        <v>6.2903051376342773</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>5.6321353912353516</v>
       </c>
       <c r="C61" s="2">
-        <v>5.5476670265197754</v>
+        <v>5.5435495376586914</v>
       </c>
       <c r="D61" s="2">
         <v>6.3328986167907715</v>
       </c>
       <c r="E61" s="2">
-        <v>6.2696833610534668</v>
+        <v>6.2676196098327637</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>6.7597222328186035</v>
       </c>
       <c r="C62" s="2">
-        <v>6.7902588844299316</v>
+        <v>6.7923722267150879</v>
       </c>
       <c r="D62" s="2">
         <v>6.4095625877380371</v>
       </c>
       <c r="E62" s="2">
-        <v>6.3353867530822754</v>
+        <v>6.3328018188476563</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>5.9177823066711426</v>
       </c>
       <c r="C63" s="2">
-        <v>5.7379498481750488</v>
+        <v>5.7310266494750977</v>
       </c>
       <c r="D63" s="2">
         <v>6.3646349906921387</v>
       </c>
       <c r="E63" s="2">
-        <v>6.2867908477783203</v>
+        <v>6.2862668037414551</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>6.2008047103881836</v>
       </c>
       <c r="C64" s="2">
-        <v>6.1592717170715332</v>
+        <v>6.1527090072631836</v>
       </c>
       <c r="D64" s="2">
         <v>6.2863035202026367</v>
       </c>
       <c r="E64" s="2">
-        <v>6.1760969161987305</v>
+        <v>6.1762161254882813</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.2538094520568848</v>
       </c>
       <c r="C65" s="2">
-        <v>6.0354528427124023</v>
+        <v>6.0353603363037109</v>
       </c>
       <c r="D65" s="2">
         <v>6.2225532531738281</v>
       </c>
       <c r="E65" s="2">
-        <v>6.0985498428344727</v>
+        <v>6.0977721214294434</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>6.8674893379211426</v>
       </c>
       <c r="C66" s="2">
-        <v>6.7491278648376465</v>
+        <v>6.746246337890625</v>
       </c>
       <c r="D66" s="2">
         <v>6.2243313789367676</v>
       </c>
       <c r="E66" s="2">
-        <v>6.1034016609191895</v>
+        <v>6.1024508476257324</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>5.6993837356567383</v>
       </c>
       <c r="C67" s="2">
-        <v>5.518791675567627</v>
+        <v>5.5269603729248047</v>
       </c>
       <c r="D67" s="2">
         <v>6.0078926086425781</v>
       </c>
       <c r="E67" s="2">
-        <v>5.8834877014160156</v>
+        <v>5.8819055557250977</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>6.3691182136535645</v>
       </c>
       <c r="C68" s="2">
-        <v>6.2011780738830566</v>
+        <v>6.2070021629333496</v>
       </c>
       <c r="D68" s="2">
         <v>5.9613947868347168</v>
       </c>
       <c r="E68" s="2">
-        <v>5.8418641090393066</v>
+        <v>5.8403873443603516</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>6.3027334213256836</v>
       </c>
       <c r="C69" s="2">
-        <v>6.1472506523132324</v>
+        <v>6.1447234153747559</v>
       </c>
       <c r="D69" s="2">
         <v>5.8975124359130859</v>
       </c>
       <c r="E69" s="2">
-        <v>5.7832889556884766</v>
+        <v>5.7835931777954102</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>5.6481375694274902</v>
       </c>
       <c r="C70" s="2">
-        <v>5.591334342956543</v>
+        <v>5.5856585502624512</v>
       </c>
       <c r="D70" s="2">
         <v>5.9526658058166504</v>
       </c>
       <c r="E70" s="2">
-        <v>5.8514385223388672</v>
+        <v>5.8516507148742676</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>4.8117733001708984</v>
       </c>
       <c r="C71" s="2">
-        <v>4.8110322952270508</v>
+        <v>4.8074612617492676</v>
       </c>
       <c r="D71" s="2">
         <v>5.9479408264160156</v>
       </c>
       <c r="E71" s="2">
-        <v>5.8746128082275391</v>
+        <v>5.8751025199890137</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>5.4993038177490234</v>
       </c>
       <c r="C72" s="2">
-        <v>5.3633389472961426</v>
+        <v>5.3573660850524902</v>
       </c>
       <c r="D72" s="2">
         <v>5.9946599006652832</v>
       </c>
       <c r="E72" s="2">
-        <v>5.919550895690918</v>
+        <v>5.9183688163757324</v>
       </c>
     </row>
     <row r="73">
@@ -1273,13 +1273,13 @@
         <v>5.6258621215820313</v>
       </c>
       <c r="C73" s="2">
-        <v>5.6320958137512207</v>
+        <v>5.6415581703186035</v>
       </c>
       <c r="D73" s="2">
         <v>6.0496644973754883</v>
       </c>
       <c r="E73" s="2">
-        <v>5.9958133697509766</v>
+        <v>5.9937906265258789</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.7501888275146484</v>
       </c>
       <c r="C74" s="2">
-        <v>6.6487970352172852</v>
+        <v>6.6478796005249024</v>
       </c>
       <c r="D74" s="2">
         <v>6.0850920677185059</v>
       </c>
       <c r="E74" s="2">
-        <v>6.0559277534484863</v>
+        <v>6.055046558380127</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>6.8249673843383789</v>
       </c>
       <c r="C75" s="2">
-        <v>6.9576964378356934</v>
+        <v>6.9573116302490234</v>
       </c>
       <c r="D75" s="2">
         <v>6.1572055816650391</v>
       </c>
       <c r="E75" s="2">
-        <v>6.1260185241699219</v>
+        <v>6.1268830299377442</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>6.1198534965515137</v>
       </c>
       <c r="C76" s="2">
-        <v>5.9232354164123535</v>
+        <v>5.9163603782653809</v>
       </c>
       <c r="D76" s="2">
         <v>6.3904237747192383</v>
       </c>
       <c r="E76" s="2">
-        <v>6.3372898101806641</v>
+        <v>6.3392877578735352</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.864161491394043</v>
       </c>
       <c r="C77" s="2">
-        <v>6.887537956237793</v>
+        <v>6.8857946395874023</v>
       </c>
       <c r="D77" s="2">
         <v>6.4813189506530762</v>
       </c>
       <c r="E77" s="2">
-        <v>6.4321470260620117</v>
+        <v>6.4347271919250488</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>6.6215806007385254</v>
       </c>
       <c r="C78" s="2">
-        <v>6.6882815361022949</v>
+        <v>6.6960291862487793</v>
       </c>
       <c r="D78" s="2">
         <v>6.6365394592285156</v>
       </c>
       <c r="E78" s="2">
-        <v>6.5686793327331543</v>
+        <v>6.570556640625</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>6.2971606254577637</v>
       </c>
       <c r="C79" s="2">
-        <v>6.2221493721008301</v>
+        <v>6.2321863174438477</v>
       </c>
       <c r="D79" s="2">
         <v>6.6221461296081543</v>
       </c>
       <c r="E79" s="2">
-        <v>6.528904914855957</v>
+        <v>6.5313992500305176</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.9107375144958496</v>
       </c>
       <c r="C80" s="2">
-        <v>6.7124762535095215</v>
+        <v>6.7191042900085449</v>
       </c>
       <c r="D80" s="2">
         <v>6.5040831565856934</v>
       </c>
       <c r="E80" s="2">
-        <v>6.3675899505615234</v>
+        <v>6.3711204528808594</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>6.3173575401306152</v>
       </c>
       <c r="C81" s="2">
-        <v>6.2170515060424805</v>
+        <v>6.2163214683532715</v>
       </c>
       <c r="D81" s="2">
         <v>6.549626350402832</v>
       </c>
       <c r="E81" s="2">
-        <v>6.3961391448974609</v>
+        <v>6.4004135131835938</v>
       </c>
     </row>
     <row r="82">
@@ -1426,13 +1426,13 @@
         <v>7.0228486061096192</v>
       </c>
       <c r="C82" s="2">
-        <v>6.8608880043029785</v>
+        <v>6.8640227317810059</v>
       </c>
       <c r="D82" s="2">
         <v>6.398247241973877</v>
       </c>
       <c r="E82" s="2">
-        <v>6.2459287643432617</v>
+        <v>6.2506504058837891</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6206493377685547</v>
       </c>
       <c r="C83" s="2">
-        <v>6.290827751159668</v>
+        <v>6.2954630851745605</v>
       </c>
       <c r="D83" s="2">
         <v>6.3949055671691895</v>
       </c>
       <c r="E83" s="2">
-        <v>6.2308120727539063</v>
+        <v>6.2344989776611328</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>5.7624011039733887</v>
       </c>
       <c r="C84" s="2">
-        <v>5.5058612823486328</v>
+        <v>5.514801025390625</v>
       </c>
       <c r="D84" s="2">
         <v>6.4814581871032715</v>
       </c>
       <c r="E84" s="2">
-        <v>6.3285131454467774</v>
+        <v>6.3321332931518555</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>6.5297408103942871</v>
       </c>
       <c r="C85" s="2">
-        <v>6.1801795959472656</v>
+        <v>6.1800003051757813</v>
       </c>
       <c r="D85" s="2">
         <v>6.6420841217041016</v>
       </c>
       <c r="E85" s="2">
-        <v>6.4798836708068848</v>
+        <v>6.483189582824707</v>
       </c>
     </row>
     <row r="86">
@@ -1494,13 +1494,13 @@
         <v>5.5017471313476563</v>
       </c>
       <c r="C86" s="2">
-        <v>5.5356435775756836</v>
+        <v>5.5379252433776856</v>
       </c>
       <c r="D86" s="2">
         <v>6.8498764038085938</v>
       </c>
       <c r="E86" s="2">
-        <v>6.6825246810913086</v>
+        <v>6.6848340034484863</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>6.5915093421936035</v>
       </c>
       <c r="C87" s="2">
-        <v>6.5522317886352539</v>
+        <v>6.5506644248962402</v>
       </c>
       <c r="D87" s="2">
         <v>6.8130464553833008</v>
       </c>
       <c r="E87" s="2">
-        <v>6.6266865730285645</v>
+        <v>6.6299543380737305</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>7.076134204864502</v>
       </c>
       <c r="C88" s="2">
-        <v>7.1014595031738281</v>
+        <v>7.110898494720459</v>
       </c>
       <c r="D88" s="2">
         <v>6.9035587310791016</v>
       </c>
       <c r="E88" s="2">
-        <v>6.7473902702331543</v>
+        <v>6.748326301574707</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>8.3563680648803711</v>
       </c>
       <c r="C89" s="2">
-        <v>8.0748119354248047</v>
+        <v>8.0786075592041016</v>
       </c>
       <c r="D89" s="2">
         <v>7.0460209846496582</v>
       </c>
       <c r="E89" s="2">
-        <v>6.8986892700195313</v>
+        <v>6.8982763290405274</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>8.1874904632568359</v>
       </c>
       <c r="C90" s="2">
-        <v>8.0408182144165039</v>
+        <v>8.0311241149902344</v>
       </c>
       <c r="D90" s="2">
         <v>7.046541690826416</v>
       </c>
       <c r="E90" s="2">
-        <v>6.9245190620422363</v>
+        <v>6.9243845939636231</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>6.6913776397705078</v>
       </c>
       <c r="C91" s="2">
-        <v>6.3583440780639649</v>
+        <v>6.3701066970825195</v>
       </c>
       <c r="D91" s="2">
         <v>7.2546029090881348</v>
       </c>
       <c r="E91" s="2">
-        <v>7.0975079536437988</v>
+        <v>7.0972886085510254</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>7.4352602958679199</v>
       </c>
       <c r="C92" s="2">
-        <v>7.3771638870239258</v>
+        <v>7.3608074188232422</v>
       </c>
       <c r="D92" s="2">
         <v>7.1930127143859863</v>
       </c>
       <c r="E92" s="2">
-        <v>7.0448575019836426</v>
+        <v>7.0445098876953125</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>7.0445599555969238</v>
       </c>
       <c r="C93" s="2">
-        <v>6.8675503730773926</v>
+        <v>6.8643527030944824</v>
       </c>
       <c r="D93" s="2">
         <v>7.2433185577392578</v>
       </c>
       <c r="E93" s="2">
-        <v>7.0914907455444336</v>
+        <v>7.0899543762207031</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>6.5344271659851074</v>
       </c>
       <c r="C94" s="2">
-        <v>6.4126501083374024</v>
+        <v>6.4149765968322754</v>
       </c>
       <c r="D94" s="2">
         <v>7.1680703163146973</v>
       </c>
       <c r="E94" s="2">
-        <v>7.0403428077697754</v>
+        <v>7.0381407737731934</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>7.3743009567260742</v>
       </c>
       <c r="C95" s="2">
-        <v>7.0925402641296387</v>
+        <v>7.0940613746643067</v>
       </c>
       <c r="D95" s="2">
         <v>6.9110846519470215</v>
       </c>
       <c r="E95" s="2">
-        <v>6.7965612411499023</v>
+        <v>6.7944612503051758</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>6.0371966361999512</v>
       </c>
       <c r="C96" s="2">
-        <v>6.0783777236938477</v>
+        <v>6.075653076171875</v>
       </c>
       <c r="D96" s="2">
         <v>6.8539166450500488</v>
       </c>
       <c r="E96" s="2">
-        <v>6.7730207443237305</v>
+        <v>6.7695503234863281</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>7.5288867950439453</v>
       </c>
       <c r="C97" s="2">
-        <v>7.5211620330810547</v>
+        <v>7.5199003219604492</v>
       </c>
       <c r="D97" s="2">
         <v>6.7651395797729492</v>
       </c>
       <c r="E97" s="2">
-        <v>6.6713986396789551</v>
+        <v>6.6688723564147949</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>7.6791324615478516</v>
       </c>
       <c r="C98" s="2">
-        <v>7.6144795417785645</v>
+        <v>7.6122851371765137</v>
       </c>
       <c r="D98" s="2">
         <v>6.5980830192565918</v>
       </c>
       <c r="E98" s="2">
-        <v>6.5011920928955078</v>
+        <v>6.4990029335021973</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.8746209144592285</v>
       </c>
       <c r="C99" s="2">
-        <v>5.8467836380004883</v>
+        <v>5.8380069732666016</v>
       </c>
       <c r="D99" s="2">
         <v>6.5619583129882813</v>
       </c>
       <c r="E99" s="2">
-        <v>6.4687910079956055</v>
+        <v>6.4656538963317871</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.1768641471862793</v>
       </c>
       <c r="C100" s="2">
-        <v>6.146479606628418</v>
+        <v>6.145909309387207</v>
       </c>
       <c r="D100" s="2">
         <v>6.5209565162658691</v>
       </c>
       <c r="E100" s="2">
-        <v>6.4526128768920898</v>
+        <v>6.4492197036743164</v>
       </c>
     </row>
     <row r="101">
@@ -1749,13 +1749,13 @@
         <v>6.6362686157226563</v>
       </c>
       <c r="C101" s="2">
-        <v>6.4625654220581055</v>
+        <v>6.4547042846679688</v>
       </c>
       <c r="D101" s="2">
         <v>6.5136809349060059</v>
       </c>
       <c r="E101" s="2">
-        <v>6.4358019828796387</v>
+        <v>6.4333972930908203</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.5410513877868652</v>
       </c>
       <c r="C102" s="2">
-        <v>5.3356914520263672</v>
+        <v>5.3355283737182617</v>
       </c>
       <c r="D102" s="2">
         <v>6.3885221481323242</v>
       </c>
       <c r="E102" s="2">
-        <v>6.2905488014221192</v>
+        <v>6.2886619567871094</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>6.2093029022216797</v>
       </c>
       <c r="C103" s="2">
-        <v>6.121039867401123</v>
+        <v>6.1148343086242676</v>
       </c>
       <c r="D103" s="2">
         <v>6.1262545585632324</v>
       </c>
       <c r="E103" s="2">
-        <v>6.0235233306884766</v>
+        <v>6.0222311019897461</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>7.0052847862243652</v>
       </c>
       <c r="C104" s="2">
-        <v>6.9469385147094727</v>
+        <v>6.9461536407470703</v>
       </c>
       <c r="D104" s="2">
         <v>6.1156749725341797</v>
       </c>
       <c r="E104" s="2">
-        <v>6.0183730125427246</v>
+        <v>6.0183615684509277</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>5.9717144966125488</v>
       </c>
       <c r="C105" s="2">
-        <v>5.9270792007446289</v>
+        <v>5.9332537651062012</v>
       </c>
       <c r="D105" s="2">
         <v>6.0591340065002442</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9653339385986328</v>
+        <v>5.9641890525817871</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>6.4024615287780762</v>
       </c>
       <c r="C106" s="2">
-        <v>6.2138814926147461</v>
+        <v>6.2172822952270508</v>
       </c>
       <c r="D106" s="2">
         <v>5.9271655082702637</v>
       </c>
       <c r="E106" s="2">
-        <v>5.8273124694824219</v>
+        <v>5.8263893127441406</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>5.318723201751709</v>
       </c>
       <c r="C107" s="2">
-        <v>5.2112493515014649</v>
+        <v>5.2144083976745606</v>
       </c>
       <c r="D107" s="2">
         <v>5.8447022438049317</v>
       </c>
       <c r="E107" s="2">
-        <v>5.7301316261291504</v>
+        <v>5.7282509803771973</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>5.7794046401977539</v>
       </c>
       <c r="C108" s="2">
-        <v>5.8004322052001953</v>
+        <v>5.8031816482543945</v>
       </c>
       <c r="D108" s="2">
         <v>5.8590126037597656</v>
       </c>
       <c r="E108" s="2">
-        <v>5.7288384437561035</v>
+        <v>5.7279787063598633</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>5.6679949760437012</v>
       </c>
       <c r="C109" s="2">
-        <v>5.6691265106201172</v>
+        <v>5.6583547592163086</v>
       </c>
       <c r="D109" s="2">
         <v>5.7989025115966797</v>
       </c>
       <c r="E109" s="2">
-        <v>5.6828999519348145</v>
+        <v>5.6814427375793457</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>5.4485507011413574</v>
       </c>
       <c r="C110" s="2">
-        <v>5.220372200012207</v>
+        <v>5.2145051956176758</v>
       </c>
       <c r="D110" s="2">
         <v>5.830256462097168</v>
       </c>
       <c r="E110" s="2">
-        <v>5.6972322463989258</v>
+        <v>5.6946172714233399</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>4.7988824844360352</v>
       </c>
       <c r="C111" s="2">
-        <v>4.4610633850097656</v>
+        <v>4.4522838592529297</v>
       </c>
       <c r="D111" s="2">
         <v>5.9050545692443848</v>
       </c>
       <c r="E111" s="2">
-        <v>5.758476734161377</v>
+        <v>5.7559528350830078</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>6.3380980491638184</v>
       </c>
       <c r="C112" s="2">
-        <v>6.1094050407409668</v>
+        <v>6.1123847961425781</v>
       </c>
       <c r="D112" s="2">
         <v>6.2336416244506836</v>
       </c>
       <c r="E112" s="2">
-        <v>6.0854835510253906</v>
+        <v>6.0840401649475098</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>6.4642910957336426</v>
       </c>
       <c r="C113" s="2">
-        <v>6.5334882736206055</v>
+        <v>6.5273313522338867</v>
       </c>
       <c r="D113" s="2">
         <v>6.464024543762207</v>
       </c>
       <c r="E113" s="2">
-        <v>6.2954850196838379</v>
+        <v>6.2938165664672852</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>6.2539033889770508</v>
       </c>
       <c r="C114" s="2">
-        <v>6.0560712814331055</v>
+        <v>6.0518250465393066</v>
       </c>
       <c r="D114" s="2">
         <v>6.4126667976379395</v>
       </c>
       <c r="E114" s="2">
-        <v>6.261685848236084</v>
+        <v>6.2616195678710938</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>7.0756411552429199</v>
       </c>
       <c r="C115" s="2">
-        <v>6.7650842666625977</v>
+        <v>6.7692990303039551</v>
       </c>
       <c r="D115" s="2">
         <v>6.4821228981018066</v>
       </c>
       <c r="E115" s="2">
-        <v>6.2997159957885742</v>
+        <v>6.3015913963317871</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>8.2760095596313477</v>
       </c>
       <c r="C116" s="2">
-        <v>8.1543102264404297</v>
+        <v>8.1671953201293945</v>
       </c>
       <c r="D116" s="2">
         <v>6.6441183090209961</v>
       </c>
       <c r="E116" s="2">
-        <v>6.4802885055541992</v>
+        <v>6.4837718009948731</v>
       </c>
     </row>
     <row r="117">
@@ -2021,13 +2021,13 @@
         <v>7.8528504371643067</v>
       </c>
       <c r="C117" s="2">
-        <v>7.6904430389404297</v>
+        <v>7.691169261932373</v>
       </c>
       <c r="D117" s="2">
         <v>6.5947327613830566</v>
       </c>
       <c r="E117" s="2">
-        <v>6.4164104461669922</v>
+        <v>6.4192600250244141</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>5.2057738304138184</v>
       </c>
       <c r="C118" s="2">
-        <v>5.364933967590332</v>
+        <v>5.3685817718505859</v>
       </c>
       <c r="D118" s="2">
         <v>6.8340396881103516</v>
       </c>
       <c r="E118" s="2">
-        <v>6.6311664581298828</v>
+        <v>6.6341385841369629</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>6.0736546516418457</v>
       </c>
       <c r="C119" s="2">
-        <v>5.5626459121704102</v>
+        <v>5.5742502212524414</v>
       </c>
       <c r="D119" s="2">
         <v>6.8994770050048828</v>
       </c>
       <c r="E119" s="2">
-        <v>6.7177867889404297</v>
+        <v>6.7203149795532227</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>6.2568421363830566</v>
       </c>
       <c r="C120" s="2">
-        <v>6.0862131118774414</v>
+        <v>6.0919084548950195</v>
       </c>
       <c r="D120" s="2">
         <v>6.9154772758483887</v>
       </c>
       <c r="E120" s="2">
-        <v>6.7739148139953613</v>
+        <v>6.7749428749084473</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>5.8936285972595215</v>
       </c>
       <c r="C121" s="2">
-        <v>5.5345029830932617</v>
+        <v>5.5317811965942383</v>
       </c>
       <c r="D121" s="2">
         <v>6.8374671936035156</v>
       </c>
       <c r="E121" s="2">
-        <v>6.6921510696411133</v>
+        <v>6.6920943260192871</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.6180524826049805</v>
       </c>
       <c r="C122" s="2">
-        <v>8.4662914276123047</v>
+        <v>8.4612369537353516</v>
       </c>
       <c r="D122" s="2">
         <v>6.7066268920898438</v>
       </c>
       <c r="E122" s="2">
-        <v>6.5494723320007324</v>
+        <v>6.5485868453979492</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>6.842841625213623</v>
       </c>
       <c r="C123" s="2">
-        <v>6.8356566429138184</v>
+        <v>6.8274126052856445</v>
       </c>
       <c r="D123" s="2">
         <v>6.8168668746948242</v>
       </c>
       <c r="E123" s="2">
-        <v>6.6283168792724609</v>
+        <v>6.6256680488586426</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>7.2196402549743652</v>
       </c>
       <c r="C124" s="2">
-        <v>7.270235538482666</v>
+        <v>7.260948657989502</v>
       </c>
       <c r="D124" s="2">
         <v>6.9036989212036133</v>
       </c>
       <c r="E124" s="2">
-        <v>6.7427401542663574</v>
+        <v>6.7385268211364746</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>7.5739192962646484</v>
       </c>
       <c r="C125" s="2">
-        <v>7.4184370040893555</v>
+        <v>7.4215607643127441</v>
       </c>
       <c r="D125" s="2">
         <v>6.8307151794433594</v>
       </c>
       <c r="E125" s="2">
-        <v>6.6804656982421875</v>
+        <v>6.6748371124267578</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>6.675290584564209</v>
       </c>
       <c r="C126" s="2">
-        <v>6.4063324928283691</v>
+        <v>6.3996005058288574</v>
       </c>
       <c r="D126" s="2">
         <v>6.8410639762878418</v>
       </c>
       <c r="E126" s="2">
-        <v>6.7099986076354981</v>
+        <v>6.7052369117736817</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.197932243347168</v>
       </c>
       <c r="C127" s="2">
-        <v>6.0745368003845215</v>
+        <v>6.0623140335083008</v>
       </c>
       <c r="D127" s="2">
-        <v>6.6189403533935547</v>
+        <v>6.66058349609375</v>
       </c>
       <c r="E127" s="2">
-        <v>6.4904618263244629</v>
+        <v>6.5517559051513672</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8551449775695801</v>
       </c>
       <c r="C128" s="2">
-        <v>6.5924534797668457</v>
+        <v>6.5899782180786133</v>
       </c>
       <c r="D128" s="2">
-        <v>6.5869541168212891</v>
+        <v>6.711421012878418</v>
       </c>
       <c r="E128" s="2">
-        <v>6.4411482810974121</v>
+        <v>6.6157135963439941</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>5.5999865531921387</v>
       </c>
       <c r="C129" s="2">
-        <v>5.5257453918457031</v>
+        <v>5.5187010765075684</v>
       </c>
       <c r="D129" s="2">
-        <v>6.48150634765625</v>
+        <v>6.7374777793884277</v>
       </c>
       <c r="E129" s="2">
-        <v>6.3029670715332031</v>
+        <v>6.6403841972351074</v>
       </c>
     </row>
     <row r="130">
@@ -2242,86 +2242,150 @@
         <v>5.9867658615112305</v>
       </c>
       <c r="C130" s="2">
-        <v>5.8002972602844238</v>
+        <v>5.8053812980651855</v>
       </c>
       <c r="D130" s="2">
-        <v>6.263023853302002</v>
+        <v>6.6813745498657227</v>
       </c>
       <c r="E130" s="2">
-        <v>6.0798730850219727</v>
+        <v>6.580531120300293</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>45200</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="2">
+        <v>6.9937300682067871</v>
+      </c>
+      <c r="C131" s="2">
+        <v>7.0799055099487305</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6.6321496963500977</v>
+      </c>
+      <c r="E131" s="2">
+        <v>6.5493960380554199</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>45231</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="B132" s="2">
+        <v>7.3003807067871094</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7.4030318260192871</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6.8141083717346191</v>
+      </c>
+      <c r="E132" s="2">
+        <v>6.7601428031921387</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>45261</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="B133" s="2">
+        <v>7.4541492462158203</v>
+      </c>
+      <c r="C133" s="2">
+        <v>7.4829835891723633</v>
+      </c>
+      <c r="D133" s="2">
+        <v>6.8715853691101074</v>
+      </c>
+      <c r="E133" s="2">
+        <v>6.8276162147521973</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>45292</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="B134" s="2">
+        <v>7.0689916610717773</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6.8828859329223633</v>
+      </c>
+      <c r="D134" s="2">
+        <v>7.132695198059082</v>
+      </c>
+      <c r="E134" s="2">
+        <v>7.0889034271240234</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>45323</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="B135" s="2">
+        <v>6.2322664260864258</v>
+      </c>
+      <c r="C135" s="2">
+        <v>6.1193819046020508</v>
+      </c>
+      <c r="D135" s="2">
+        <v>7.2759366035461426</v>
+      </c>
+      <c r="E135" s="2">
+        <v>7.2493438720703125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>45352</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="B136" s="2">
+        <v>7.8355607986450195</v>
+      </c>
+      <c r="C136" s="2">
+        <v>7.9590353965759277</v>
+      </c>
+      <c r="D136" s="2">
+        <v>7.3162517547607422</v>
+      </c>
+      <c r="E136" s="2">
+        <v>7.2735490798950195</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>45383</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="B137" s="2">
+        <v>7.3724365234375</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7.1972379684448242</v>
+      </c>
+      <c r="D137" s="2">
+        <v>7.3188967704772949</v>
+      </c>
+      <c r="E137" s="2">
+        <v>7.2519683837890625</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>45413</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="B138" s="2">
+        <v>7.9499759674072266</v>
+      </c>
+      <c r="C138" s="2">
+        <v>7.8702869415283203</v>
+      </c>
+      <c r="D138" s="2">
+        <v>7.2918462753295898</v>
+      </c>
+      <c r="E138" s="2">
+        <v>7.2057657241821289</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
@@ -2350,6 +2414,60 @@
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/SCE_stdev.xlsx
+++ b/SCE_stdev.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -151,13 +151,13 @@
         <v>4.3766160011291504</v>
       </c>
       <c r="C7" s="2">
-        <v>4.3250226974487305</v>
+        <v>4.3250417709350586</v>
       </c>
       <c r="D7" s="2">
         <v>5.3208756446838379</v>
       </c>
       <c r="E7" s="2">
-        <v>5.1943740844726563</v>
+        <v>5.1943440437316895</v>
       </c>
     </row>
     <row r="8">
@@ -168,13 +168,13 @@
         <v>4.9273009300231934</v>
       </c>
       <c r="C8" s="2">
-        <v>4.8070144653320313</v>
+        <v>4.8050918579101562</v>
       </c>
       <c r="D8" s="2">
         <v>5.6248149871826172</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5278944969177246</v>
+        <v>5.5279655456542969</v>
       </c>
     </row>
     <row r="9">
@@ -185,13 +185,13 @@
         <v>5.5088901519775391</v>
       </c>
       <c r="C9" s="2">
-        <v>5.3203816413879395</v>
+        <v>5.3203277587890625</v>
       </c>
       <c r="D9" s="2">
         <v>5.7272243499755859</v>
       </c>
       <c r="E9" s="2">
-        <v>5.5874781608581543</v>
+        <v>5.5876197814941406</v>
       </c>
     </row>
     <row r="10">
@@ -202,13 +202,13 @@
         <v>5.08917236328125</v>
       </c>
       <c r="C10" s="2">
-        <v>4.9413251876831055</v>
+        <v>4.9418225288391113</v>
       </c>
       <c r="D10" s="2">
         <v>5.7389001846313477</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5807747840881348</v>
+        <v>5.5812296867370605</v>
       </c>
     </row>
     <row r="11">
@@ -219,13 +219,13 @@
         <v>6.7023992538452148</v>
       </c>
       <c r="C11" s="2">
-        <v>6.5781254768371582</v>
+        <v>6.5794358253479004</v>
       </c>
       <c r="D11" s="2">
         <v>5.8502249717712402</v>
       </c>
       <c r="E11" s="2">
-        <v>5.6795845031738281</v>
+        <v>5.6800580024719238</v>
       </c>
     </row>
     <row r="12">
@@ -236,13 +236,13 @@
         <v>7.1445112228393555</v>
       </c>
       <c r="C12" s="2">
-        <v>7.1954984664916992</v>
+        <v>7.1960721015930176</v>
       </c>
       <c r="D12" s="2">
         <v>6.1374540328979492</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9683856964111328</v>
+        <v>5.9689083099365234</v>
       </c>
     </row>
     <row r="13">
@@ -253,13 +253,13 @@
         <v>6.3416814804077148</v>
       </c>
       <c r="C13" s="2">
-        <v>5.9449801445007324</v>
+        <v>5.9455466270446777</v>
       </c>
       <c r="D13" s="2">
         <v>6.369962215423584</v>
       </c>
       <c r="E13" s="2">
-        <v>6.2066307067871094</v>
+        <v>6.2072410583496094</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>5.8206300735473633</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5338506698608398</v>
+        <v>5.5364985466003418</v>
       </c>
       <c r="D14" s="2">
         <v>6.3614044189453125</v>
       </c>
       <c r="E14" s="2">
-        <v>6.2050395011901855</v>
+        <v>6.2054867744445801</v>
       </c>
     </row>
     <row r="15">
@@ -287,13 +287,13 @@
         <v>6.7408227920532227</v>
       </c>
       <c r="C15" s="2">
-        <v>6.4700617790222168</v>
+        <v>6.4706850051879883</v>
       </c>
       <c r="D15" s="2">
         <v>6.565824031829834</v>
       </c>
       <c r="E15" s="2">
-        <v>6.4160819053649902</v>
+        <v>6.4160456657409668</v>
       </c>
     </row>
     <row r="16">
@@ -304,13 +304,13 @@
         <v>6.9616789817810059</v>
       </c>
       <c r="C16" s="2">
-        <v>6.9242334365844727</v>
+        <v>6.9246959686279297</v>
       </c>
       <c r="D16" s="2">
         <v>6.5533127784729004</v>
       </c>
       <c r="E16" s="2">
-        <v>6.4031138420104981</v>
+        <v>6.4030971527099609</v>
       </c>
     </row>
     <row r="17">
@@ -318,16 +318,16 @@
         <v>41730</v>
       </c>
       <c r="B17" s="2">
-        <v>7.0198736190795899</v>
+        <v>7.0198736190795898</v>
       </c>
       <c r="C17" s="2">
-        <v>6.9512205123901367</v>
+        <v>6.9500865936279297</v>
       </c>
       <c r="D17" s="2">
         <v>6.4752511978149414</v>
       </c>
       <c r="E17" s="2">
-        <v>6.2902255058288574</v>
+        <v>6.2902231216430664</v>
       </c>
     </row>
     <row r="18">
@@ -338,13 +338,13 @@
         <v>5.4318685531616211</v>
       </c>
       <c r="C18" s="2">
-        <v>5.3060617446899414</v>
+        <v>5.304537296295166</v>
       </c>
       <c r="D18" s="2">
         <v>6.4657926559448242</v>
       </c>
       <c r="E18" s="2">
-        <v>6.29266357421875</v>
+        <v>6.2923417091369629</v>
       </c>
     </row>
     <row r="19">
@@ -355,13 +355,13 @@
         <v>6.928950309753418</v>
       </c>
       <c r="C19" s="2">
-        <v>6.8407049179077148</v>
+        <v>6.8368544578552246</v>
       </c>
       <c r="D19" s="2">
         <v>6.5046501159667969</v>
       </c>
       <c r="E19" s="2">
-        <v>6.3717069625854492</v>
+        <v>6.371330738067627</v>
       </c>
     </row>
     <row r="20">
@@ -372,13 +372,13 @@
         <v>6.5897998809814453</v>
       </c>
       <c r="C20" s="2">
-        <v>6.4614129066467285</v>
+        <v>6.4628968238830566</v>
       </c>
       <c r="D20" s="2">
         <v>6.5902962684631348</v>
       </c>
       <c r="E20" s="2">
-        <v>6.4608869552612305</v>
+        <v>6.460538387298584</v>
       </c>
     </row>
     <row r="21">
@@ -389,13 +389,13 @@
         <v>6.4419560432434082</v>
       </c>
       <c r="C21" s="2">
-        <v>6.1795048713684082</v>
+        <v>6.1802077293395996</v>
       </c>
       <c r="D21" s="2">
         <v>6.5911030769348145</v>
       </c>
       <c r="E21" s="2">
-        <v>6.4645862579345703</v>
+        <v>6.4641542434692383</v>
       </c>
     </row>
     <row r="22">
@@ -406,13 +406,13 @@
         <v>6.2565526962280273</v>
       </c>
       <c r="C22" s="2">
-        <v>5.9669227600097656</v>
+        <v>5.9646143913269043</v>
       </c>
       <c r="D22" s="2">
         <v>6.5778684616088867</v>
       </c>
       <c r="E22" s="2">
-        <v>6.4370636940002442</v>
+        <v>6.4368319511413574</v>
       </c>
     </row>
     <row r="23">
@@ -423,13 +423,13 @@
         <v>6.1703476905822754</v>
       </c>
       <c r="C23" s="2">
-        <v>6.2452406883239746</v>
+        <v>6.2474002838134766</v>
       </c>
       <c r="D23" s="2">
         <v>6.8175868988037109</v>
       </c>
       <c r="E23" s="2">
-        <v>6.6763749122619629</v>
+        <v>6.6761946678161621</v>
       </c>
     </row>
     <row r="24">
@@ -440,13 +440,13 @@
         <v>7.5116400718688965</v>
       </c>
       <c r="C24" s="2">
-        <v>7.272679328918457</v>
+        <v>7.2735505104064941</v>
       </c>
       <c r="D24" s="2">
         <v>6.6747927665710449</v>
       </c>
       <c r="E24" s="2">
-        <v>6.5403361320495605</v>
+        <v>6.5404620170593262</v>
       </c>
     </row>
     <row r="25">
@@ -457,13 +457,13 @@
         <v>6.9689383506774902</v>
       </c>
       <c r="C25" s="2">
-        <v>6.9575290679931641</v>
+        <v>6.9572386741638184</v>
       </c>
       <c r="D25" s="2">
         <v>6.5991482734680176</v>
       </c>
       <c r="E25" s="2">
-        <v>6.5010566711425781</v>
+        <v>6.5009040832519531</v>
       </c>
     </row>
     <row r="26">
@@ -474,13 +474,13 @@
         <v>6.9007606506347656</v>
       </c>
       <c r="C26" s="2">
-        <v>6.7035174369812012</v>
+        <v>6.7041864395141602</v>
       </c>
       <c r="D26" s="2">
         <v>6.5725560188293457</v>
       </c>
       <c r="E26" s="2">
-        <v>6.4809198379516602</v>
+        <v>6.4806900024414062</v>
       </c>
     </row>
     <row r="27">
@@ -491,13 +491,13 @@
         <v>7.5893359184265137</v>
       </c>
       <c r="C27" s="2">
-        <v>7.4598627090454102</v>
+        <v>7.4588007926940918</v>
       </c>
       <c r="D27" s="2">
         <v>6.5490598678588867</v>
       </c>
       <c r="E27" s="2">
-        <v>6.4852523803710938</v>
+        <v>6.4856328964233398</v>
       </c>
     </row>
     <row r="28">
@@ -508,13 +508,13 @@
         <v>5.6438055038452148</v>
       </c>
       <c r="C28" s="2">
-        <v>5.616356372833252</v>
+        <v>5.6152615547180176</v>
       </c>
       <c r="D28" s="2">
         <v>6.5775609016418457</v>
       </c>
       <c r="E28" s="2">
-        <v>6.4934654235839844</v>
+        <v>6.4934558868408203</v>
       </c>
     </row>
     <row r="29">
@@ -525,13 +525,13 @@
         <v>5.9089961051940918</v>
       </c>
       <c r="C29" s="2">
-        <v>6.1078953742980957</v>
+        <v>6.1068782806396484</v>
       </c>
       <c r="D29" s="2">
         <v>6.4952526092529297</v>
       </c>
       <c r="E29" s="2">
-        <v>6.4116311073303223</v>
+        <v>6.4113893508911133</v>
       </c>
     </row>
     <row r="30">
@@ -542,13 +542,13 @@
         <v>6.2026290893554688</v>
       </c>
       <c r="C30" s="2">
-        <v>5.9982728958129883</v>
+        <v>5.9982805252075195</v>
       </c>
       <c r="D30" s="2">
         <v>6.533477783203125</v>
       </c>
       <c r="E30" s="2">
-        <v>6.4331579208374024</v>
+        <v>6.4329681396484375</v>
       </c>
     </row>
     <row r="31">
@@ -559,13 +559,13 @@
         <v>6.0450873374938965</v>
       </c>
       <c r="C31" s="2">
-        <v>6.0059175491333008</v>
+        <v>6.0090970993041992</v>
       </c>
       <c r="D31" s="2">
         <v>6.4435620307922363</v>
       </c>
       <c r="E31" s="2">
-        <v>6.3637275695800781</v>
+        <v>6.3634533882141113</v>
       </c>
     </row>
     <row r="32">
@@ -576,13 +576,13 @@
         <v>6.4268560409545898</v>
       </c>
       <c r="C32" s="2">
-        <v>6.3191585540771484</v>
+        <v>6.3178071975708008</v>
       </c>
       <c r="D32" s="2">
         <v>6.2075600624084473</v>
       </c>
       <c r="E32" s="2">
-        <v>6.146998405456543</v>
+        <v>6.1469736099243164</v>
       </c>
     </row>
     <row r="33">
@@ -593,13 +593,13 @@
         <v>6.7708635330200195</v>
       </c>
       <c r="C33" s="2">
-        <v>6.5361695289611816</v>
+        <v>6.5349550247192383</v>
       </c>
       <c r="D33" s="2">
         <v>6.1695270538330078</v>
       </c>
       <c r="E33" s="2">
-        <v>6.0941638946533203</v>
+        <v>6.0938324928283691</v>
       </c>
     </row>
     <row r="34">
@@ -610,13 +610,13 @@
         <v>7.3129644393920898</v>
       </c>
       <c r="C34" s="2">
-        <v>7.1512689590454102</v>
+        <v>7.1514449119567871</v>
       </c>
       <c r="D34" s="2">
         <v>6.1940207481384277</v>
       </c>
       <c r="E34" s="2">
-        <v>6.0885257720947266</v>
+        <v>6.0881528854370117</v>
       </c>
     </row>
     <row r="35">
@@ -627,13 +627,13 @@
         <v>6.091519832611084</v>
       </c>
       <c r="C35" s="2">
-        <v>6.0786476135253906</v>
+        <v>6.0785560607910156</v>
       </c>
       <c r="D35" s="2">
         <v>6.1752529144287109</v>
       </c>
       <c r="E35" s="2">
-        <v>6.0933318138122559</v>
+        <v>6.0929131507873535</v>
       </c>
     </row>
     <row r="36">
@@ -644,13 +644,13 @@
         <v>5.4653201103210449</v>
       </c>
       <c r="C36" s="2">
-        <v>5.5092973709106445</v>
+        <v>5.5104818344116211</v>
       </c>
       <c r="D36" s="2">
         <v>6.1984052658081055</v>
       </c>
       <c r="E36" s="2">
-        <v>6.1143269538879395</v>
+        <v>6.1134676933288574</v>
       </c>
     </row>
     <row r="37">
@@ -661,13 +661,13 @@
         <v>5.301506519317627</v>
       </c>
       <c r="C37" s="2">
-        <v>5.1408452987670899</v>
+        <v>5.136991024017334</v>
       </c>
       <c r="D37" s="2">
         <v>6.1795182228088379</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0857563018798828</v>
+        <v>6.0851140022277832</v>
       </c>
     </row>
     <row r="38">
@@ -678,13 +678,13 @@
         <v>6.1294403076171875</v>
       </c>
       <c r="C38" s="2">
-        <v>6.057152271270752</v>
+        <v>6.0557632446289062</v>
       </c>
       <c r="D38" s="2">
         <v>6.1320891380310059</v>
       </c>
       <c r="E38" s="2">
-        <v>6.0508990287780762</v>
+        <v>6.0503578186035156</v>
       </c>
     </row>
     <row r="39">
@@ -695,13 +695,13 @@
         <v>6.0337200164794922</v>
       </c>
       <c r="C39" s="2">
-        <v>6.0415291786193848</v>
+        <v>6.0411200523376465</v>
       </c>
       <c r="D39" s="2">
         <v>5.9034738540649414</v>
       </c>
       <c r="E39" s="2">
-        <v>5.8033361434936524</v>
+        <v>5.8029265403747559</v>
       </c>
     </row>
     <row r="40">
@@ -709,16 +709,16 @@
         <v>42430</v>
       </c>
       <c r="B40" s="2">
-        <v>6.2534551620483399</v>
+        <v>6.2534551620483398</v>
       </c>
       <c r="C40" s="2">
-        <v>6.1948747634887695</v>
+        <v>6.1940889358520508</v>
       </c>
       <c r="D40" s="2">
         <v>5.9057126045227051</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7817835807800293</v>
+        <v>5.7815051078796387</v>
       </c>
     </row>
     <row r="41">
@@ -726,16 +726,16 @@
         <v>42461</v>
       </c>
       <c r="B41" s="2">
-        <v>6.2568740844726563</v>
+        <v>6.2568740844726562</v>
       </c>
       <c r="C41" s="2">
-        <v>6.0620226860046387</v>
+        <v>6.0626249313354492</v>
       </c>
       <c r="D41" s="2">
         <v>6.0877313613891602</v>
       </c>
       <c r="E41" s="2">
-        <v>5.9362545013427734</v>
+        <v>5.9359631538391113</v>
       </c>
     </row>
     <row r="42">
@@ -746,13 +746,13 @@
         <v>6.3440008163452148</v>
       </c>
       <c r="C42" s="2">
-        <v>6.2224540710449219</v>
+        <v>6.2221479415893555</v>
       </c>
       <c r="D42" s="2">
         <v>6.1198782920837402</v>
       </c>
       <c r="E42" s="2">
-        <v>5.9862384796142578</v>
+        <v>5.9861273765563965</v>
       </c>
     </row>
     <row r="43">
@@ -763,13 +763,13 @@
         <v>5.2554292678833008</v>
       </c>
       <c r="C43" s="2">
-        <v>4.9232029914855957</v>
+        <v>4.9245648384094238</v>
       </c>
       <c r="D43" s="2">
         <v>6.0441641807556152</v>
       </c>
       <c r="E43" s="2">
-        <v>5.9147682189941406</v>
+        <v>5.9147405624389648</v>
       </c>
     </row>
     <row r="44">
@@ -780,13 +780,13 @@
         <v>6.1116690635681152</v>
       </c>
       <c r="C44" s="2">
-        <v>5.8846726417541504</v>
+        <v>5.8857650756835938</v>
       </c>
       <c r="D44" s="2">
         <v>6.055727481842041</v>
       </c>
       <c r="E44" s="2">
-        <v>5.8956642150878906</v>
+        <v>5.8957853317260742</v>
       </c>
     </row>
     <row r="45">
@@ -797,13 +797,13 @@
         <v>7.1034855842590332</v>
       </c>
       <c r="C45" s="2">
-        <v>6.899538516998291</v>
+        <v>6.9006037712097168</v>
       </c>
       <c r="D45" s="2">
         <v>6.1613049507141113</v>
       </c>
       <c r="E45" s="2">
-        <v>6.0152077674865723</v>
+        <v>6.0151910781860352</v>
       </c>
     </row>
     <row r="46">
@@ -814,13 +814,13 @@
         <v>5.5908308029174805</v>
       </c>
       <c r="C46" s="2">
-        <v>5.5906996726989746</v>
+        <v>5.588465690612793</v>
       </c>
       <c r="D46" s="2">
         <v>6.293513298034668</v>
       </c>
       <c r="E46" s="2">
-        <v>6.1772332191467285</v>
+        <v>6.1771855354309082</v>
       </c>
     </row>
     <row r="47">
@@ -831,13 +831,13 @@
         <v>5.4480128288269043</v>
       </c>
       <c r="C47" s="2">
-        <v>5.4139208793640137</v>
+        <v>5.4132843017578125</v>
       </c>
       <c r="D47" s="2">
-        <v>6.3882975578308106</v>
+        <v>6.3882975578308105</v>
       </c>
       <c r="E47" s="2">
-        <v>6.2998385429382324</v>
+        <v>6.299750804901123</v>
       </c>
     </row>
     <row r="48">
@@ -848,13 +848,13 @@
         <v>6.1377911567687988</v>
       </c>
       <c r="C48" s="2">
-        <v>5.8695931434631348</v>
+        <v>5.8705215454101562</v>
       </c>
       <c r="D48" s="2">
         <v>6.5736865997314453</v>
       </c>
       <c r="E48" s="2">
-        <v>6.5247855186462402</v>
+        <v>6.5246491432189941</v>
       </c>
     </row>
     <row r="49">
@@ -865,13 +865,13 @@
         <v>7.2036523818969727</v>
       </c>
       <c r="C49" s="2">
-        <v>7.2707648277282715</v>
+        <v>7.2687416076660156</v>
       </c>
       <c r="D49" s="2">
-        <v>6.6156687736511231</v>
+        <v>6.615668773651123</v>
       </c>
       <c r="E49" s="2">
-        <v>6.5843625068664551</v>
+        <v>6.5841388702392578</v>
       </c>
     </row>
     <row r="50">
@@ -882,13 +882,13 @@
         <v>7.4467463493347168</v>
       </c>
       <c r="C50" s="2">
-        <v>7.5202522277832031</v>
+        <v>7.520576000213623</v>
       </c>
       <c r="D50" s="2">
         <v>6.4916987419128418</v>
       </c>
       <c r="E50" s="2">
-        <v>6.4695949554443359</v>
+        <v>6.4692201614379883</v>
       </c>
     </row>
     <row r="51">
@@ -899,13 +899,13 @@
         <v>7.1970605850219727</v>
       </c>
       <c r="C51" s="2">
-        <v>7.325901985168457</v>
+        <v>7.3252363204956055</v>
       </c>
       <c r="D51" s="2">
         <v>6.6447196006774902</v>
       </c>
       <c r="E51" s="2">
-        <v>6.6299524307250977</v>
+        <v>6.6297731399536133</v>
       </c>
     </row>
     <row r="52">
@@ -916,13 +916,13 @@
         <v>6.9239311218261719</v>
       </c>
       <c r="C52" s="2">
-        <v>6.9477262496948242</v>
+        <v>6.9486470222473145</v>
       </c>
       <c r="D52" s="2">
         <v>6.7505278587341309</v>
       </c>
       <c r="E52" s="2">
-        <v>6.7216868400573731</v>
+        <v>6.7215428352355957</v>
       </c>
     </row>
     <row r="53">
@@ -933,13 +933,13 @@
         <v>6.489506721496582</v>
       </c>
       <c r="C53" s="2">
-        <v>6.4208645820617676</v>
+        <v>6.4211726188659668</v>
       </c>
       <c r="D53" s="2">
         <v>6.754941463470459</v>
       </c>
       <c r="E53" s="2">
-        <v>6.7539105415344238</v>
+        <v>6.7535390853881836</v>
       </c>
     </row>
     <row r="54">
@@ -950,13 +950,13 @@
         <v>5.9877557754516602</v>
       </c>
       <c r="C54" s="2">
-        <v>5.8666300773620606</v>
+        <v>5.8663368225097656</v>
       </c>
       <c r="D54" s="2">
-        <v>6.6327285766601563</v>
+        <v>6.6327285766601562</v>
       </c>
       <c r="E54" s="2">
-        <v>6.606689453125</v>
+        <v>6.6066207885742188</v>
       </c>
     </row>
     <row r="55">
@@ -967,13 +967,13 @@
         <v>6.9680194854736328</v>
       </c>
       <c r="C55" s="2">
-        <v>7.0339164733886719</v>
+        <v>7.0334405899047852</v>
       </c>
       <c r="D55" s="2">
         <v>6.5913233757019043</v>
       </c>
       <c r="E55" s="2">
-        <v>6.5708236694335938</v>
+        <v>6.570427417755127</v>
       </c>
     </row>
     <row r="56">
@@ -984,13 +984,13 @@
         <v>6.4002885818481445</v>
       </c>
       <c r="C56" s="2">
-        <v>6.2395315170288086</v>
+        <v>6.2392144203186035</v>
       </c>
       <c r="D56" s="2">
         <v>6.5557041168212891</v>
       </c>
       <c r="E56" s="2">
-        <v>6.5180253982543945</v>
+        <v>6.5177769660949707</v>
       </c>
     </row>
     <row r="57">
@@ -1001,13 +1001,13 @@
         <v>6.1775131225585938</v>
       </c>
       <c r="C57" s="2">
-        <v>6.1596083641052246</v>
+        <v>6.158484935760498</v>
       </c>
       <c r="D57" s="2">
         <v>6.4121708869934082</v>
       </c>
       <c r="E57" s="2">
-        <v>6.3620057106018066</v>
+        <v>6.3616480827331543</v>
       </c>
     </row>
     <row r="58">
@@ -1018,13 +1018,13 @@
         <v>6.1037335395812988</v>
       </c>
       <c r="C58" s="2">
-        <v>5.9457755088806152</v>
+        <v>5.9464764595031738</v>
       </c>
       <c r="D58" s="2">
         <v>6.442194938659668</v>
       </c>
       <c r="E58" s="2">
-        <v>6.4032845497131348</v>
+        <v>6.4028778076171875</v>
       </c>
     </row>
     <row r="59">
@@ -1035,13 +1035,13 @@
         <v>7.0741024017333984</v>
       </c>
       <c r="C59" s="2">
-        <v>7.1974587440490723</v>
+        <v>7.1948356628417969</v>
       </c>
       <c r="D59" s="2">
         <v>6.434420108795166</v>
       </c>
       <c r="E59" s="2">
-        <v>6.3882174491882324</v>
+        <v>6.3876934051513672</v>
       </c>
     </row>
     <row r="60">
@@ -1052,13 +1052,13 @@
         <v>6.8764848709106445</v>
       </c>
       <c r="C60" s="2">
-        <v>6.8507165908813477</v>
+        <v>6.8513855934143066</v>
       </c>
       <c r="D60" s="2">
         <v>6.3491740226745605</v>
       </c>
       <c r="E60" s="2">
-        <v>6.2903051376342773</v>
+        <v>6.2898039817810059</v>
       </c>
     </row>
     <row r="61">
@@ -1069,13 +1069,13 @@
         <v>5.6321353912353516</v>
       </c>
       <c r="C61" s="2">
-        <v>5.5435495376586914</v>
+        <v>5.5434861183166504</v>
       </c>
       <c r="D61" s="2">
         <v>6.3328986167907715</v>
       </c>
       <c r="E61" s="2">
-        <v>6.2676196098327637</v>
+        <v>6.2674093246459961</v>
       </c>
     </row>
     <row r="62">
@@ -1086,13 +1086,13 @@
         <v>6.7597222328186035</v>
       </c>
       <c r="C62" s="2">
-        <v>6.7923722267150879</v>
+        <v>6.7922382354736328</v>
       </c>
       <c r="D62" s="2">
         <v>6.4095625877380371</v>
       </c>
       <c r="E62" s="2">
-        <v>6.3328018188476563</v>
+        <v>6.3327407836914062</v>
       </c>
     </row>
     <row r="63">
@@ -1103,13 +1103,13 @@
         <v>5.9177823066711426</v>
       </c>
       <c r="C63" s="2">
-        <v>5.7310266494750977</v>
+        <v>5.7296781539916992</v>
       </c>
       <c r="D63" s="2">
         <v>6.3646349906921387</v>
       </c>
       <c r="E63" s="2">
-        <v>6.2862668037414551</v>
+        <v>6.2861127853393555</v>
       </c>
     </row>
     <row r="64">
@@ -1120,13 +1120,13 @@
         <v>6.2008047103881836</v>
       </c>
       <c r="C64" s="2">
-        <v>6.1527090072631836</v>
+        <v>6.1524357795715332</v>
       </c>
       <c r="D64" s="2">
         <v>6.2863035202026367</v>
       </c>
       <c r="E64" s="2">
-        <v>6.1762161254882813</v>
+        <v>6.1764340400695801</v>
       </c>
     </row>
     <row r="65">
@@ -1137,13 +1137,13 @@
         <v>6.2538094520568848</v>
       </c>
       <c r="C65" s="2">
-        <v>6.0353603363037109</v>
+        <v>6.0376644134521484</v>
       </c>
       <c r="D65" s="2">
         <v>6.2225532531738281</v>
       </c>
       <c r="E65" s="2">
-        <v>6.0977721214294434</v>
+        <v>6.0979981422424316</v>
       </c>
     </row>
     <row r="66">
@@ -1154,13 +1154,13 @@
         <v>6.8674893379211426</v>
       </c>
       <c r="C66" s="2">
-        <v>6.746246337890625</v>
+        <v>6.7464656829833984</v>
       </c>
       <c r="D66" s="2">
         <v>6.2243313789367676</v>
       </c>
       <c r="E66" s="2">
-        <v>6.1024508476257324</v>
+        <v>6.1026697158813477</v>
       </c>
     </row>
     <row r="67">
@@ -1171,13 +1171,13 @@
         <v>5.6993837356567383</v>
       </c>
       <c r="C67" s="2">
-        <v>5.5269603729248047</v>
+        <v>5.5268244743347168</v>
       </c>
       <c r="D67" s="2">
         <v>6.0078926086425781</v>
       </c>
       <c r="E67" s="2">
-        <v>5.8819055557250977</v>
+        <v>5.881828784942627</v>
       </c>
     </row>
     <row r="68">
@@ -1188,13 +1188,13 @@
         <v>6.3691182136535645</v>
       </c>
       <c r="C68" s="2">
-        <v>6.2070021629333496</v>
+        <v>6.2077264785766602</v>
       </c>
       <c r="D68" s="2">
         <v>5.9613947868347168</v>
       </c>
       <c r="E68" s="2">
-        <v>5.8403873443603516</v>
+        <v>5.8407011032104492</v>
       </c>
     </row>
     <row r="69">
@@ -1205,13 +1205,13 @@
         <v>6.3027334213256836</v>
       </c>
       <c r="C69" s="2">
-        <v>6.1447234153747559</v>
+        <v>6.1454644203186035</v>
       </c>
       <c r="D69" s="2">
         <v>5.8975124359130859</v>
       </c>
       <c r="E69" s="2">
-        <v>5.7835931777954102</v>
+        <v>5.7838077545166016</v>
       </c>
     </row>
     <row r="70">
@@ -1222,13 +1222,13 @@
         <v>5.6481375694274902</v>
       </c>
       <c r="C70" s="2">
-        <v>5.5856585502624512</v>
+        <v>5.5855298042297363</v>
       </c>
       <c r="D70" s="2">
         <v>5.9526658058166504</v>
       </c>
       <c r="E70" s="2">
-        <v>5.8516507148742676</v>
+        <v>5.8514113426208496</v>
       </c>
     </row>
     <row r="71">
@@ -1239,13 +1239,13 @@
         <v>4.8117733001708984</v>
       </c>
       <c r="C71" s="2">
-        <v>4.8074612617492676</v>
+        <v>4.8046679496765137</v>
       </c>
       <c r="D71" s="2">
         <v>5.9479408264160156</v>
       </c>
       <c r="E71" s="2">
-        <v>5.8751025199890137</v>
+        <v>5.8746509552001953</v>
       </c>
     </row>
     <row r="72">
@@ -1256,13 +1256,13 @@
         <v>5.4993038177490234</v>
       </c>
       <c r="C72" s="2">
-        <v>5.3573660850524902</v>
+        <v>5.3595290184020996</v>
       </c>
       <c r="D72" s="2">
         <v>5.9946599006652832</v>
       </c>
       <c r="E72" s="2">
-        <v>5.9183688163757324</v>
+        <v>5.9178066253662109</v>
       </c>
     </row>
     <row r="73">
@@ -1270,16 +1270,16 @@
         <v>43435</v>
       </c>
       <c r="B73" s="2">
-        <v>5.6258621215820313</v>
+        <v>5.6258621215820312</v>
       </c>
       <c r="C73" s="2">
-        <v>5.6415581703186035</v>
+        <v>5.6403980255126953</v>
       </c>
       <c r="D73" s="2">
         <v>6.0496644973754883</v>
       </c>
       <c r="E73" s="2">
-        <v>5.9937906265258789</v>
+        <v>5.9932827949523926</v>
       </c>
     </row>
     <row r="74">
@@ -1290,13 +1290,13 @@
         <v>6.7501888275146484</v>
       </c>
       <c r="C74" s="2">
-        <v>6.6478796005249024</v>
+        <v>6.6460967063903809</v>
       </c>
       <c r="D74" s="2">
         <v>6.0850920677185059</v>
       </c>
       <c r="E74" s="2">
-        <v>6.055046558380127</v>
+        <v>6.0543923377990723</v>
       </c>
     </row>
     <row r="75">
@@ -1307,13 +1307,13 @@
         <v>6.8249673843383789</v>
       </c>
       <c r="C75" s="2">
-        <v>6.9573116302490234</v>
+        <v>6.955620288848877</v>
       </c>
       <c r="D75" s="2">
         <v>6.1572055816650391</v>
       </c>
       <c r="E75" s="2">
-        <v>6.1268830299377442</v>
+        <v>6.1262078285217285</v>
       </c>
     </row>
     <row r="76">
@@ -1324,13 +1324,13 @@
         <v>6.1198534965515137</v>
       </c>
       <c r="C76" s="2">
-        <v>5.9163603782653809</v>
+        <v>5.9152288436889648</v>
       </c>
       <c r="D76" s="2">
         <v>6.3904237747192383</v>
       </c>
       <c r="E76" s="2">
-        <v>6.3392877578735352</v>
+        <v>6.3390092849731445</v>
       </c>
     </row>
     <row r="77">
@@ -1341,13 +1341,13 @@
         <v>6.864161491394043</v>
       </c>
       <c r="C77" s="2">
-        <v>6.8857946395874023</v>
+        <v>6.8870081901550293</v>
       </c>
       <c r="D77" s="2">
         <v>6.4813189506530762</v>
       </c>
       <c r="E77" s="2">
-        <v>6.4347271919250488</v>
+        <v>6.434168815612793</v>
       </c>
     </row>
     <row r="78">
@@ -1358,13 +1358,13 @@
         <v>6.6215806007385254</v>
       </c>
       <c r="C78" s="2">
-        <v>6.6960291862487793</v>
+        <v>6.6954512596130371</v>
       </c>
       <c r="D78" s="2">
         <v>6.6365394592285156</v>
       </c>
       <c r="E78" s="2">
-        <v>6.570556640625</v>
+        <v>6.5702166557312012</v>
       </c>
     </row>
     <row r="79">
@@ -1375,13 +1375,13 @@
         <v>6.2971606254577637</v>
       </c>
       <c r="C79" s="2">
-        <v>6.2321863174438477</v>
+        <v>6.2318692207336426</v>
       </c>
       <c r="D79" s="2">
         <v>6.6221461296081543</v>
       </c>
       <c r="E79" s="2">
-        <v>6.5313992500305176</v>
+        <v>6.5312328338623047</v>
       </c>
     </row>
     <row r="80">
@@ -1392,13 +1392,13 @@
         <v>6.9107375144958496</v>
       </c>
       <c r="C80" s="2">
-        <v>6.7191042900085449</v>
+        <v>6.7198829650878906</v>
       </c>
       <c r="D80" s="2">
         <v>6.5040831565856934</v>
       </c>
       <c r="E80" s="2">
-        <v>6.3711204528808594</v>
+        <v>6.3711495399475098</v>
       </c>
     </row>
     <row r="81">
@@ -1409,13 +1409,13 @@
         <v>6.3173575401306152</v>
       </c>
       <c r="C81" s="2">
-        <v>6.2163214683532715</v>
+        <v>6.2159619331359863</v>
       </c>
       <c r="D81" s="2">
         <v>6.549626350402832</v>
       </c>
       <c r="E81" s="2">
-        <v>6.4004135131835938</v>
+        <v>6.4003543853759766</v>
       </c>
     </row>
     <row r="82">
@@ -1423,16 +1423,16 @@
         <v>43709</v>
       </c>
       <c r="B82" s="2">
-        <v>7.0228486061096192</v>
+        <v>7.0228486061096191</v>
       </c>
       <c r="C82" s="2">
-        <v>6.8640227317810059</v>
+        <v>6.8648295402526855</v>
       </c>
       <c r="D82" s="2">
         <v>6.398247241973877</v>
       </c>
       <c r="E82" s="2">
-        <v>6.2506504058837891</v>
+        <v>6.2502241134643555</v>
       </c>
     </row>
     <row r="83">
@@ -1443,13 +1443,13 @@
         <v>6.6206493377685547</v>
       </c>
       <c r="C83" s="2">
-        <v>6.2954630851745605</v>
+        <v>6.2952432632446289</v>
       </c>
       <c r="D83" s="2">
         <v>6.3949055671691895</v>
       </c>
       <c r="E83" s="2">
-        <v>6.2344989776611328</v>
+        <v>6.2341513633728027</v>
       </c>
     </row>
     <row r="84">
@@ -1460,13 +1460,13 @@
         <v>5.7624011039733887</v>
       </c>
       <c r="C84" s="2">
-        <v>5.514801025390625</v>
+        <v>5.5148711204528809</v>
       </c>
       <c r="D84" s="2">
         <v>6.4814581871032715</v>
       </c>
       <c r="E84" s="2">
-        <v>6.3321332931518555</v>
+        <v>6.3315620422363281</v>
       </c>
     </row>
     <row r="85">
@@ -1477,13 +1477,13 @@
         <v>6.5297408103942871</v>
       </c>
       <c r="C85" s="2">
-        <v>6.1800003051757813</v>
+        <v>6.1780705451965332</v>
       </c>
       <c r="D85" s="2">
         <v>6.6420841217041016</v>
       </c>
       <c r="E85" s="2">
-        <v>6.483189582824707</v>
+        <v>6.4826135635375977</v>
       </c>
     </row>
     <row r="86">
@@ -1491,16 +1491,16 @@
         <v>43831</v>
       </c>
       <c r="B86" s="2">
-        <v>5.5017471313476563</v>
+        <v>5.5017471313476562</v>
       </c>
       <c r="C86" s="2">
-        <v>5.5379252433776856</v>
+        <v>5.5358366966247559</v>
       </c>
       <c r="D86" s="2">
         <v>6.8498764038085938</v>
       </c>
       <c r="E86" s="2">
-        <v>6.6848340034484863</v>
+        <v>6.6846060752868652</v>
       </c>
     </row>
     <row r="87">
@@ -1511,13 +1511,13 @@
         <v>6.5915093421936035</v>
       </c>
       <c r="C87" s="2">
-        <v>6.5506644248962402</v>
+        <v>6.5507960319519043</v>
       </c>
       <c r="D87" s="2">
         <v>6.8130464553833008</v>
       </c>
       <c r="E87" s="2">
-        <v>6.6299543380737305</v>
+        <v>6.6299853324890137</v>
       </c>
     </row>
     <row r="88">
@@ -1528,13 +1528,13 @@
         <v>7.076134204864502</v>
       </c>
       <c r="C88" s="2">
-        <v>7.110898494720459</v>
+        <v>7.1085643768310547</v>
       </c>
       <c r="D88" s="2">
         <v>6.9035587310791016</v>
       </c>
       <c r="E88" s="2">
-        <v>6.748326301574707</v>
+        <v>6.7483086585998535</v>
       </c>
     </row>
     <row r="89">
@@ -1545,13 +1545,13 @@
         <v>8.3563680648803711</v>
       </c>
       <c r="C89" s="2">
-        <v>8.0786075592041016</v>
+        <v>8.0793466567993164</v>
       </c>
       <c r="D89" s="2">
         <v>7.0460209846496582</v>
       </c>
       <c r="E89" s="2">
-        <v>6.8982763290405274</v>
+        <v>6.8978948593139648</v>
       </c>
     </row>
     <row r="90">
@@ -1562,13 +1562,13 @@
         <v>8.1874904632568359</v>
       </c>
       <c r="C90" s="2">
-        <v>8.0311241149902344</v>
+        <v>8.0338945388793945</v>
       </c>
       <c r="D90" s="2">
         <v>7.046541690826416</v>
       </c>
       <c r="E90" s="2">
-        <v>6.9243845939636231</v>
+        <v>6.9241905212402344</v>
       </c>
     </row>
     <row r="91">
@@ -1579,13 +1579,13 @@
         <v>6.6913776397705078</v>
       </c>
       <c r="C91" s="2">
-        <v>6.3701066970825195</v>
+        <v>6.3732461929321289</v>
       </c>
       <c r="D91" s="2">
         <v>7.2546029090881348</v>
       </c>
       <c r="E91" s="2">
-        <v>7.0972886085510254</v>
+        <v>7.0974197387695312</v>
       </c>
     </row>
     <row r="92">
@@ -1596,13 +1596,13 @@
         <v>7.4352602958679199</v>
       </c>
       <c r="C92" s="2">
-        <v>7.3608074188232422</v>
+        <v>7.3601517677307129</v>
       </c>
       <c r="D92" s="2">
         <v>7.1930127143859863</v>
       </c>
       <c r="E92" s="2">
-        <v>7.0445098876953125</v>
+        <v>7.0443248748779297</v>
       </c>
     </row>
     <row r="93">
@@ -1613,13 +1613,13 @@
         <v>7.0445599555969238</v>
       </c>
       <c r="C93" s="2">
-        <v>6.8643527030944824</v>
+        <v>6.8611454963684082</v>
       </c>
       <c r="D93" s="2">
         <v>7.2433185577392578</v>
       </c>
       <c r="E93" s="2">
-        <v>7.0899543762207031</v>
+        <v>7.0899596214294434</v>
       </c>
     </row>
     <row r="94">
@@ -1630,13 +1630,13 @@
         <v>6.5344271659851074</v>
       </c>
       <c r="C94" s="2">
-        <v>6.4149765968322754</v>
+        <v>6.41473388671875</v>
       </c>
       <c r="D94" s="2">
         <v>7.1680703163146973</v>
       </c>
       <c r="E94" s="2">
-        <v>7.0381407737731934</v>
+        <v>7.0378818511962891</v>
       </c>
     </row>
     <row r="95">
@@ -1647,13 +1647,13 @@
         <v>7.3743009567260742</v>
       </c>
       <c r="C95" s="2">
-        <v>7.0940613746643067</v>
+        <v>7.0948977470397949</v>
       </c>
       <c r="D95" s="2">
         <v>6.9110846519470215</v>
       </c>
       <c r="E95" s="2">
-        <v>6.7944612503051758</v>
+        <v>6.7939324378967285</v>
       </c>
     </row>
     <row r="96">
@@ -1664,13 +1664,13 @@
         <v>6.0371966361999512</v>
       </c>
       <c r="C96" s="2">
-        <v>6.075653076171875</v>
+        <v>6.072941780090332</v>
       </c>
       <c r="D96" s="2">
         <v>6.8539166450500488</v>
       </c>
       <c r="E96" s="2">
-        <v>6.7695503234863281</v>
+        <v>6.7688422203063965</v>
       </c>
     </row>
     <row r="97">
@@ -1681,13 +1681,13 @@
         <v>7.5288867950439453</v>
       </c>
       <c r="C97" s="2">
-        <v>7.5199003219604492</v>
+        <v>7.5192766189575195</v>
       </c>
       <c r="D97" s="2">
         <v>6.7651395797729492</v>
       </c>
       <c r="E97" s="2">
-        <v>6.6688723564147949</v>
+        <v>6.6680588722229004</v>
       </c>
     </row>
     <row r="98">
@@ -1698,13 +1698,13 @@
         <v>7.6791324615478516</v>
       </c>
       <c r="C98" s="2">
-        <v>7.6122851371765137</v>
+        <v>7.6106481552124023</v>
       </c>
       <c r="D98" s="2">
         <v>6.5980830192565918</v>
       </c>
       <c r="E98" s="2">
-        <v>6.4990029335021973</v>
+        <v>6.4983177185058594</v>
       </c>
     </row>
     <row r="99">
@@ -1715,13 +1715,13 @@
         <v>5.8746209144592285</v>
       </c>
       <c r="C99" s="2">
-        <v>5.8380069732666016</v>
+        <v>5.8383512496948242</v>
       </c>
       <c r="D99" s="2">
-        <v>6.5619583129882813</v>
+        <v>6.5619583129882812</v>
       </c>
       <c r="E99" s="2">
-        <v>6.4656538963317871</v>
+        <v>6.4651222229003906</v>
       </c>
     </row>
     <row r="100">
@@ -1732,13 +1732,13 @@
         <v>6.1768641471862793</v>
       </c>
       <c r="C100" s="2">
-        <v>6.145909309387207</v>
+        <v>6.1474318504333496</v>
       </c>
       <c r="D100" s="2">
         <v>6.5209565162658691</v>
       </c>
       <c r="E100" s="2">
-        <v>6.4492197036743164</v>
+        <v>6.4486913681030273</v>
       </c>
     </row>
     <row r="101">
@@ -1746,16 +1746,16 @@
         <v>44287</v>
       </c>
       <c r="B101" s="2">
-        <v>6.6362686157226563</v>
+        <v>6.6362686157226562</v>
       </c>
       <c r="C101" s="2">
-        <v>6.4547042846679688</v>
+        <v>6.4531035423278809</v>
       </c>
       <c r="D101" s="2">
         <v>6.5136809349060059</v>
       </c>
       <c r="E101" s="2">
-        <v>6.4333972930908203</v>
+        <v>6.4330120086669922</v>
       </c>
     </row>
     <row r="102">
@@ -1766,13 +1766,13 @@
         <v>5.5410513877868652</v>
       </c>
       <c r="C102" s="2">
-        <v>5.3355283737182617</v>
+        <v>5.3334736824035645</v>
       </c>
       <c r="D102" s="2">
         <v>6.3885221481323242</v>
       </c>
       <c r="E102" s="2">
-        <v>6.2886619567871094</v>
+        <v>6.2881875038146973</v>
       </c>
     </row>
     <row r="103">
@@ -1783,13 +1783,13 @@
         <v>6.2093029022216797</v>
       </c>
       <c r="C103" s="2">
-        <v>6.1148343086242676</v>
+        <v>6.1159772872924805</v>
       </c>
       <c r="D103" s="2">
         <v>6.1262545585632324</v>
       </c>
       <c r="E103" s="2">
-        <v>6.0222311019897461</v>
+        <v>6.021721363067627</v>
       </c>
     </row>
     <row r="104">
@@ -1800,13 +1800,13 @@
         <v>7.0052847862243652</v>
       </c>
       <c r="C104" s="2">
-        <v>6.9461536407470703</v>
+        <v>6.9470171928405762</v>
       </c>
       <c r="D104" s="2">
         <v>6.1156749725341797</v>
       </c>
       <c r="E104" s="2">
-        <v>6.0183615684509277</v>
+        <v>6.0179662704467773</v>
       </c>
     </row>
     <row r="105">
@@ -1817,13 +1817,13 @@
         <v>5.9717144966125488</v>
       </c>
       <c r="C105" s="2">
-        <v>5.9332537651062012</v>
+        <v>5.9318294525146484</v>
       </c>
       <c r="D105" s="2">
-        <v>6.0591340065002442</v>
+        <v>6.0591340065002441</v>
       </c>
       <c r="E105" s="2">
-        <v>5.9641890525817871</v>
+        <v>5.9635748863220215</v>
       </c>
     </row>
     <row r="106">
@@ -1834,13 +1834,13 @@
         <v>6.4024615287780762</v>
       </c>
       <c r="C106" s="2">
-        <v>6.2172822952270508</v>
+        <v>6.215855598449707</v>
       </c>
       <c r="D106" s="2">
         <v>5.9271655082702637</v>
       </c>
       <c r="E106" s="2">
-        <v>5.8263893127441406</v>
+        <v>5.8261380195617676</v>
       </c>
     </row>
     <row r="107">
@@ -1851,13 +1851,13 @@
         <v>5.318723201751709</v>
       </c>
       <c r="C107" s="2">
-        <v>5.2144083976745606</v>
+        <v>5.2124509811401367</v>
       </c>
       <c r="D107" s="2">
-        <v>5.8447022438049317</v>
+        <v>5.8447022438049316</v>
       </c>
       <c r="E107" s="2">
-        <v>5.7282509803771973</v>
+        <v>5.7283716201782227</v>
       </c>
     </row>
     <row r="108">
@@ -1868,13 +1868,13 @@
         <v>5.7794046401977539</v>
       </c>
       <c r="C108" s="2">
-        <v>5.8031816482543945</v>
+        <v>5.8045568466186523</v>
       </c>
       <c r="D108" s="2">
         <v>5.8590126037597656</v>
       </c>
       <c r="E108" s="2">
-        <v>5.7279787063598633</v>
+        <v>5.728212833404541</v>
       </c>
     </row>
     <row r="109">
@@ -1885,13 +1885,13 @@
         <v>5.6679949760437012</v>
       </c>
       <c r="C109" s="2">
-        <v>5.6583547592163086</v>
+        <v>5.6579079627990723</v>
       </c>
       <c r="D109" s="2">
         <v>5.7989025115966797</v>
       </c>
       <c r="E109" s="2">
-        <v>5.6814427375793457</v>
+        <v>5.6813201904296875</v>
       </c>
     </row>
     <row r="110">
@@ -1902,13 +1902,13 @@
         <v>5.4485507011413574</v>
       </c>
       <c r="C110" s="2">
-        <v>5.2145051956176758</v>
+        <v>5.2161722183227539</v>
       </c>
       <c r="D110" s="2">
         <v>5.830256462097168</v>
       </c>
       <c r="E110" s="2">
-        <v>5.6946172714233399</v>
+        <v>5.6947383880615234</v>
       </c>
     </row>
     <row r="111">
@@ -1919,13 +1919,13 @@
         <v>4.7988824844360352</v>
       </c>
       <c r="C111" s="2">
-        <v>4.4522838592529297</v>
+        <v>4.4535760879516602</v>
       </c>
       <c r="D111" s="2">
         <v>5.9050545692443848</v>
       </c>
       <c r="E111" s="2">
-        <v>5.7559528350830078</v>
+        <v>5.7559785842895508</v>
       </c>
     </row>
     <row r="112">
@@ -1936,13 +1936,13 @@
         <v>6.3380980491638184</v>
       </c>
       <c r="C112" s="2">
-        <v>6.1123847961425781</v>
+        <v>6.1145510673522949</v>
       </c>
       <c r="D112" s="2">
         <v>6.2336416244506836</v>
       </c>
       <c r="E112" s="2">
-        <v>6.0840401649475098</v>
+        <v>6.0842127799987793</v>
       </c>
     </row>
     <row r="113">
@@ -1953,13 +1953,13 @@
         <v>6.4642910957336426</v>
       </c>
       <c r="C113" s="2">
-        <v>6.5273313522338867</v>
+        <v>6.5249814987182617</v>
       </c>
       <c r="D113" s="2">
         <v>6.464024543762207</v>
       </c>
       <c r="E113" s="2">
-        <v>6.2938165664672852</v>
+        <v>6.2937068939208984</v>
       </c>
     </row>
     <row r="114">
@@ -1970,13 +1970,13 @@
         <v>6.2539033889770508</v>
       </c>
       <c r="C114" s="2">
-        <v>6.0518250465393066</v>
+        <v>6.0525922775268555</v>
       </c>
       <c r="D114" s="2">
         <v>6.4126667976379395</v>
       </c>
       <c r="E114" s="2">
-        <v>6.2616195678710938</v>
+        <v>6.2615141868591309</v>
       </c>
     </row>
     <row r="115">
@@ -1987,13 +1987,13 @@
         <v>7.0756411552429199</v>
       </c>
       <c r="C115" s="2">
-        <v>6.7692990303039551</v>
+        <v>6.7670178413391113</v>
       </c>
       <c r="D115" s="2">
         <v>6.4821228981018066</v>
       </c>
       <c r="E115" s="2">
-        <v>6.3015913963317871</v>
+        <v>6.3014016151428223</v>
       </c>
     </row>
     <row r="116">
@@ -2004,13 +2004,13 @@
         <v>8.2760095596313477</v>
       </c>
       <c r="C116" s="2">
-        <v>8.1671953201293945</v>
+        <v>8.1665582656860352</v>
       </c>
       <c r="D116" s="2">
         <v>6.6441183090209961</v>
       </c>
       <c r="E116" s="2">
-        <v>6.4837718009948731</v>
+        <v>6.4833931922912598</v>
       </c>
     </row>
     <row r="117">
@@ -2018,16 +2018,16 @@
         <v>44774</v>
       </c>
       <c r="B117" s="2">
-        <v>7.8528504371643067</v>
+        <v>7.8528504371643066</v>
       </c>
       <c r="C117" s="2">
-        <v>7.691169261932373</v>
+        <v>7.690004825592041</v>
       </c>
       <c r="D117" s="2">
         <v>6.5947327613830566</v>
       </c>
       <c r="E117" s="2">
-        <v>6.4192600250244141</v>
+        <v>6.4187512397766113</v>
       </c>
     </row>
     <row r="118">
@@ -2038,13 +2038,13 @@
         <v>5.2057738304138184</v>
       </c>
       <c r="C118" s="2">
-        <v>5.3685817718505859</v>
+        <v>5.3681745529174805</v>
       </c>
       <c r="D118" s="2">
         <v>6.8340396881103516</v>
       </c>
       <c r="E118" s="2">
-        <v>6.6341385841369629</v>
+        <v>6.6337847709655762</v>
       </c>
     </row>
     <row r="119">
@@ -2055,13 +2055,13 @@
         <v>6.0736546516418457</v>
       </c>
       <c r="C119" s="2">
-        <v>5.5742502212524414</v>
+        <v>5.5751595497131348</v>
       </c>
       <c r="D119" s="2">
         <v>6.8994770050048828</v>
       </c>
       <c r="E119" s="2">
-        <v>6.7203149795532227</v>
+        <v>6.7197365760803223</v>
       </c>
     </row>
     <row r="120">
@@ -2072,13 +2072,13 @@
         <v>6.2568421363830566</v>
       </c>
       <c r="C120" s="2">
-        <v>6.0919084548950195</v>
+        <v>6.0914993286132812</v>
       </c>
       <c r="D120" s="2">
         <v>6.9154772758483887</v>
       </c>
       <c r="E120" s="2">
-        <v>6.7749428749084473</v>
+        <v>6.7746739387512207</v>
       </c>
     </row>
     <row r="121">
@@ -2089,13 +2089,13 @@
         <v>5.8936285972595215</v>
       </c>
       <c r="C121" s="2">
-        <v>5.5317811965942383</v>
+        <v>5.5327720642089844</v>
       </c>
       <c r="D121" s="2">
         <v>6.8374671936035156</v>
       </c>
       <c r="E121" s="2">
-        <v>6.6920943260192871</v>
+        <v>6.69189453125</v>
       </c>
     </row>
     <row r="122">
@@ -2106,13 +2106,13 @@
         <v>8.6180524826049805</v>
       </c>
       <c r="C122" s="2">
-        <v>8.4612369537353516</v>
+        <v>8.4602832794189453</v>
       </c>
       <c r="D122" s="2">
         <v>6.7066268920898438</v>
       </c>
       <c r="E122" s="2">
-        <v>6.5485868453979492</v>
+        <v>6.5483078956604004</v>
       </c>
     </row>
     <row r="123">
@@ -2123,13 +2123,13 @@
         <v>6.842841625213623</v>
       </c>
       <c r="C123" s="2">
-        <v>6.8274126052856445</v>
+        <v>6.8261590003967285</v>
       </c>
       <c r="D123" s="2">
         <v>6.8168668746948242</v>
       </c>
       <c r="E123" s="2">
-        <v>6.6256680488586426</v>
+        <v>6.6255049705505371</v>
       </c>
     </row>
     <row r="124">
@@ -2140,13 +2140,13 @@
         <v>7.2196402549743652</v>
       </c>
       <c r="C124" s="2">
-        <v>7.260948657989502</v>
+        <v>7.2614555358886719</v>
       </c>
       <c r="D124" s="2">
         <v>6.9036989212036133</v>
       </c>
       <c r="E124" s="2">
-        <v>6.7385268211364746</v>
+        <v>6.7383933067321777</v>
       </c>
     </row>
     <row r="125">
@@ -2157,13 +2157,13 @@
         <v>7.5739192962646484</v>
       </c>
       <c r="C125" s="2">
-        <v>7.4215607643127441</v>
+        <v>7.4215426445007324</v>
       </c>
       <c r="D125" s="2">
         <v>6.8307151794433594</v>
       </c>
       <c r="E125" s="2">
-        <v>6.6748371124267578</v>
+        <v>6.6746945381164551</v>
       </c>
     </row>
     <row r="126">
@@ -2174,13 +2174,13 @@
         <v>6.675290584564209</v>
       </c>
       <c r="C126" s="2">
-        <v>6.3996005058288574</v>
+        <v>6.3977270126342773</v>
       </c>
       <c r="D126" s="2">
         <v>6.8410639762878418</v>
       </c>
       <c r="E126" s="2">
-        <v>6.7052369117736817</v>
+        <v>6.7050118446350098</v>
       </c>
     </row>
     <row r="127">
@@ -2191,13 +2191,13 @@
         <v>6.197932243347168</v>
       </c>
       <c r="C127" s="2">
-        <v>6.0623140335083008</v>
+        <v>6.0629458427429199</v>
       </c>
       <c r="D127" s="2">
         <v>6.66058349609375</v>
       </c>
       <c r="E127" s="2">
-        <v>6.5517559051513672</v>
+        <v>6.5515217781066895</v>
       </c>
     </row>
     <row r="128">
@@ -2208,13 +2208,13 @@
         <v>6.8551449775695801</v>
       </c>
       <c r="C128" s="2">
-        <v>6.5899782180786133</v>
+        <v>6.5911545753479004</v>
       </c>
       <c r="D128" s="2">
         <v>6.711421012878418</v>
       </c>
       <c r="E128" s="2">
-        <v>6.6157135963439941</v>
+        <v>6.6154899597167969</v>
       </c>
     </row>
     <row r="129">
@@ -2225,13 +2225,13 @@
         <v>5.5999865531921387</v>
       </c>
       <c r="C129" s="2">
-        <v>5.5187010765075684</v>
+        <v>5.5182113647460938</v>
       </c>
       <c r="D129" s="2">
         <v>6.7374777793884277</v>
       </c>
       <c r="E129" s="2">
-        <v>6.6403841972351074</v>
+        <v>6.6402974128723145</v>
       </c>
     </row>
     <row r="130">
@@ -2242,13 +2242,13 @@
         <v>5.9867658615112305</v>
       </c>
       <c r="C130" s="2">
-        <v>5.8053812980651855</v>
+        <v>5.8056259155273438</v>
       </c>
       <c r="D130" s="2">
         <v>6.6813745498657227</v>
       </c>
       <c r="E130" s="2">
-        <v>6.580531120300293</v>
+        <v>6.5803771018981934</v>
       </c>
     </row>
     <row r="131">
@@ -2259,13 +2259,13 @@
         <v>6.9937300682067871</v>
       </c>
       <c r="C131" s="2">
-        <v>7.0799055099487305</v>
+        <v>7.0788722038269043</v>
       </c>
       <c r="D131" s="2">
         <v>6.6321496963500977</v>
       </c>
       <c r="E131" s="2">
-        <v>6.5493960380554199</v>
+        <v>6.5494318008422852</v>
       </c>
     </row>
     <row r="132">
@@ -2276,13 +2276,13 @@
         <v>7.3003807067871094</v>
       </c>
       <c r="C132" s="2">
-        <v>7.4030318260192871</v>
+        <v>7.4018731117248535</v>
       </c>
       <c r="D132" s="2">
         <v>6.8141083717346191</v>
       </c>
       <c r="E132" s="2">
-        <v>6.7601428031921387</v>
+        <v>6.7598423957824707</v>
       </c>
     </row>
     <row r="133">
@@ -2293,13 +2293,13 @@
         <v>7.4541492462158203</v>
       </c>
       <c r="C133" s="2">
-        <v>7.4829835891723633</v>
+        <v>7.4847240447998047</v>
       </c>
       <c r="D133" s="2">
         <v>6.8715853691101074</v>
       </c>
       <c r="E133" s="2">
-        <v>6.8276162147521973</v>
+        <v>6.827359676361084</v>
       </c>
     </row>
     <row r="134">
@@ -2310,13 +2310,13 @@
         <v>7.0689916610717773</v>
       </c>
       <c r="C134" s="2">
-        <v>6.8828859329223633</v>
+        <v>6.8822588920593262</v>
       </c>
       <c r="D134" s="2">
         <v>7.132695198059082</v>
       </c>
       <c r="E134" s="2">
-        <v>7.0889034271240234</v>
+        <v>7.0888934135437012</v>
       </c>
     </row>
     <row r="135">
@@ -2327,13 +2327,13 @@
         <v>6.2322664260864258</v>
       </c>
       <c r="C135" s="2">
-        <v>6.1193819046020508</v>
+        <v>6.1192188262939453</v>
       </c>
       <c r="D135" s="2">
-        <v>7.2759366035461426</v>
+        <v>7.2608222961425781</v>
       </c>
       <c r="E135" s="2">
-        <v>7.2493438720703125</v>
+        <v>7.2495632171630859</v>
       </c>
     </row>
     <row r="136">
@@ -2344,13 +2344,13 @@
         <v>7.8355607986450195</v>
       </c>
       <c r="C136" s="2">
-        <v>7.9590353965759277</v>
+        <v>7.9566431045532227</v>
       </c>
       <c r="D136" s="2">
-        <v>7.3162517547607422</v>
+        <v>7.2753996849060059</v>
       </c>
       <c r="E136" s="2">
-        <v>7.2735490798950195</v>
+        <v>7.251284122467041</v>
       </c>
     </row>
     <row r="137">
@@ -2361,13 +2361,13 @@
         <v>7.3724365234375</v>
       </c>
       <c r="C137" s="2">
-        <v>7.1972379684448242</v>
+        <v>7.1988086700439453</v>
       </c>
       <c r="D137" s="2">
-        <v>7.3188967704772949</v>
+        <v>7.2722768783569336</v>
       </c>
       <c r="E137" s="2">
-        <v>7.2519683837890625</v>
+        <v>7.2324609756469727</v>
       </c>
     </row>
     <row r="138">
@@ -2378,32 +2378,48 @@
         <v>7.9499759674072266</v>
       </c>
       <c r="C138" s="2">
-        <v>7.8702869415283203</v>
+        <v>7.8720145225524902</v>
       </c>
       <c r="D138" s="2">
-        <v>7.2918462753295898</v>
+        <v>7.2462949752807617</v>
       </c>
       <c r="E138" s="2">
-        <v>7.2057657241821289</v>
+        <v>7.1964230537414551</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>45444</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="B139" s="2">
+        <v>7.1399087905883789</v>
+      </c>
+      <c r="C139" s="2">
+        <v>7.2516565322875977</v>
+      </c>
+      <c r="D139" s="2">
+        <v>7.2758455276489258</v>
+      </c>
+      <c r="E139" s="2">
+        <v>7.248784065246582</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
         <v>45474</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="B140" s="2">
+        <v>7.1249256134033203</v>
+      </c>
+      <c r="C140" s="2">
+        <v>7.0943613052368164</v>
+      </c>
+      <c r="D140" s="2">
+        <v>7.4845614433288574</v>
+      </c>
+      <c r="E140" s="2">
+        <v>7.4746966361999512</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
@@ -2468,6 +2484,24 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>